--- a/POST_COMPLETED_240711.xlsx
+++ b/POST_COMPLETED_240711.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SCALE Skills Gap Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joellai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6127024C-4BEC-4C22-8F74-F39EB69A726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FCB4AE-BEB1-4482-ABE8-A6350F57DBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2198F4C1-B610-4748-A209-68D41EF30B2D}"/>
   </bookViews>
@@ -110,66 +110,42 @@
     <t>Customisable notification system for specific jobs/ opening for students to apply propmply.</t>
   </si>
   <si>
-    <t>638523731957472966</t>
-  </si>
-  <si>
     <t>nil</t>
   </si>
   <si>
-    <t>638523731968613700</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>the app did not sync up my work safety score initially, and i had to email in to get it recorded.</t>
   </si>
   <si>
-    <t>638523731978737064</t>
-  </si>
-  <si>
     <t>nol</t>
   </si>
   <si>
-    <t>638523731989943197</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>When selecting the job listing, and then clicking back, sometimes it would go back to the first page instead of going to the page that I was viewing. Inprovements on this would be helpful</t>
   </si>
   <si>
-    <t>638523732122510019</t>
-  </si>
-  <si>
     <t>No.</t>
   </si>
   <si>
     <t>Can increase the number of maximum applications per person</t>
   </si>
   <si>
-    <t>638523732123447677</t>
-  </si>
-  <si>
     <t>Ranking of jobs applied for. Ranking is not considered, seems obsolete to have to rank them if so</t>
   </si>
   <si>
     <t>Upload and save multiple resume versions to profile so that able to select which one to use when apply for job</t>
   </si>
   <si>
-    <t>638523732130022390</t>
-  </si>
-  <si>
     <t>Nil</t>
   </si>
   <si>
     <t>Could be more user friendly interms of UI</t>
   </si>
   <si>
-    <t>638523732139357080</t>
-  </si>
-  <si>
     <t>unable to go back to specific page while browsing other listings</t>
   </si>
   <si>
@@ -182,337 +158,166 @@
     <t>Current status regarding application; employer push for response (especially school-linked opportunities) - some no response on whether pass fail, difficult to understand.</t>
   </si>
   <si>
-    <t>638523732145306155</t>
-  </si>
-  <si>
-    <t>638523732180798599</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <t>638523732207807543</t>
-  </si>
-  <si>
-    <t>638523732242270650</t>
-  </si>
-  <si>
-    <t>638523732318258243</t>
-  </si>
-  <si>
     <t>Nope.</t>
   </si>
   <si>
-    <t>638523732340256243</t>
-  </si>
-  <si>
-    <t>638523732430842578</t>
-  </si>
-  <si>
-    <t>638523732479795385</t>
-  </si>
-  <si>
-    <t>638523732577809674</t>
-  </si>
-  <si>
     <t>Nil. I enjoy the main page where it flags out the important tasks to complete if incomplete as well as a general overview</t>
   </si>
   <si>
-    <t>638523732613714372</t>
-  </si>
-  <si>
     <t>the saved list. It is very confused.</t>
   </si>
   <si>
     <t>can add the list of applications that we applied</t>
   </si>
   <si>
-    <t>638523732755992143</t>
-  </si>
-  <si>
     <t>Ranking of internship, hard to decide which is number 1 when there are many factors included to make a decision to apply</t>
   </si>
   <si>
-    <t>638523732795671098</t>
-  </si>
-  <si>
     <t>I hope there's an easier/clearer way to track our submissions for inplace assignments for summer 10 weeks pa</t>
   </si>
   <si>
-    <t>638523733315502627</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>638523733463644702</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
     <t>z</t>
   </si>
   <si>
-    <t>638523733939744656</t>
-  </si>
-  <si>
     <t>Some defunct features like "transport" - which were meant for carpooling but in actuality are not utilized.</t>
   </si>
   <si>
     <t>Indexing and more options for opportunity sorting. And perhaps an option to utilize InPlace for job-seeking after graduation too.</t>
   </si>
   <si>
-    <t>638523734328437385</t>
-  </si>
-  <si>
-    <t>638523734623595487</t>
-  </si>
-  <si>
     <t>Not sure if this is a feature but when looking for internships, when we enter a listing and press back to exit the listing, the site brings us back to the very first page of all the placements instead of bringing us back to the page we were at last (eg. page 8), so if that could be fixed I think it would make things easier for us students as we won't lose track of where we were at.</t>
   </si>
   <si>
-    <t>638523735235727901</t>
-  </si>
-  <si>
-    <t>638523735425196198</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>The ability to sort placements into specific folders instead of saving them into one uncategorised group (e.g. 'Marketing', 'Finance')</t>
   </si>
   <si>
-    <t>638523736029308092</t>
-  </si>
-  <si>
     <t>I found the interface very confusing due to the numerous sub-modules on the website. I had to navigate extensively to find the functions I needed.</t>
   </si>
   <si>
-    <t>638523736099629773</t>
-  </si>
-  <si>
-    <t>638523736144416377</t>
-  </si>
-  <si>
     <t>The journey when I filter the internships, click on one of them and go back to the results page always resets the filter/the results page I am on and is very annoying</t>
   </si>
   <si>
     <t>Improve the above, and also I don't remember seeing any of the courses for skills or etc that is mentioned in the previous set of questions</t>
   </si>
   <si>
-    <t>638523736350522447</t>
-  </si>
-  <si>
-    <t>638523736723161412</t>
-  </si>
-  <si>
     <t>NIL</t>
   </si>
   <si>
-    <t>638523736852061305</t>
-  </si>
-  <si>
-    <t>638523737024839943</t>
-  </si>
-  <si>
     <t>After I click into a job, it’ll bring me back to the starting page 1 and not the page whr I was, that is abit annoying because I have to press to whr I was again</t>
   </si>
   <si>
-    <t>638523737992015905</t>
-  </si>
-  <si>
-    <t>638523739090150495</t>
-  </si>
-  <si>
     <t>Separate the major that the companies are hiring. For instance, allow the feature to select Aerospace Engineering major, and provide the list of companies that are related to the industry.</t>
   </si>
   <si>
-    <t>638523739217181364</t>
-  </si>
-  <si>
     <t>For some of us, we have no prior internship experience, and being able to apply to only 20 places greatly disadvantages us. The website is also very outdated, after having browsed through many pages and found a company which interests me, after applying for it the page goes back to the first one and i have to find where I left off. In contrast, my NUS peers utilise their own domain which seems much more advance and intuitive to use as compared to inplace.</t>
   </si>
   <si>
     <t>Revamp the whole website.</t>
   </si>
   <si>
-    <t>638523739842775645</t>
-  </si>
-  <si>
     <t>Remove filled up job openings for clarity for potential students to consider their available options in shortlisting their preferred positions.</t>
   </si>
   <si>
     <t>Individualised notification system for certain job roles based on user interest.</t>
   </si>
   <si>
-    <t>638523741136853715</t>
-  </si>
-  <si>
     <t>I think checking of job status (when we have already applied for the job but we are unable to see which company has rejected us)</t>
   </si>
   <si>
     <t>The job status.</t>
   </si>
   <si>
-    <t>638523742118047105</t>
-  </si>
-  <si>
     <t>allow ECDS students to access to SCSE CAO's jobs</t>
   </si>
   <si>
-    <t>638523742617167890</t>
-  </si>
-  <si>
-    <t>638523742819752204</t>
-  </si>
-  <si>
-    <t>638523743242261739</t>
-  </si>
-  <si>
     <t>Nik</t>
   </si>
   <si>
-    <t>638523743555300469</t>
-  </si>
-  <si>
     <t>The service to find hitch riders to go to work together.</t>
   </si>
   <si>
     <t>Increase the user experience as it’s quite laggy at times</t>
   </si>
   <si>
-    <t>638523743733470448</t>
-  </si>
-  <si>
     <t>I believe the ranking option, because from what my seniors said and based on my personal experience, the ranking does not have a bearing on your likelihood of being placed at all.</t>
   </si>
   <si>
     <t>Maybe a timeline showing your application status to each opportunity would be useful</t>
   </si>
   <si>
-    <t>638523746077103880</t>
-  </si>
-  <si>
     <t>How to navigate to find certain personal info</t>
   </si>
   <si>
-    <t>638523748234109065</t>
-  </si>
-  <si>
     <t>Job search, skill and job not match</t>
   </si>
   <si>
     <t>The job search, maybe more advance filtering</t>
   </si>
   <si>
-    <t>638523749412763236</t>
-  </si>
-  <si>
-    <t>638523750982319479</t>
-  </si>
-  <si>
     <t>The function to list out bookmarked listing constantly reset once I viewed a single one of the jobs I bookmarked, making it a very big inconvenience to constantly set my search criteria</t>
   </si>
   <si>
-    <t>638523751853333720</t>
-  </si>
-  <si>
     <t>when it makes the job listing start from the start when you click into a listing and press back</t>
   </si>
   <si>
     <t>dont refresh the search everytime i press back on a listing</t>
   </si>
   <si>
-    <t>638523754362481920</t>
-  </si>
-  <si>
     <t>The duration does not reflect my real internship timing.</t>
   </si>
   <si>
-    <t>638523754388682278</t>
-  </si>
-  <si>
     <t>The loading times for the ejournal was very long and slow</t>
   </si>
   <si>
-    <t>638523754726160451</t>
-  </si>
-  <si>
     <t>calendar not useful</t>
   </si>
   <si>
     <t>research function can be improve for better use</t>
   </si>
   <si>
-    <t>638523756635796187</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
-    <t>638523756682102598</t>
-  </si>
-  <si>
     <t>It is fine but sometime it is hard to navigate</t>
   </si>
   <si>
     <t>Better keyword searching</t>
   </si>
   <si>
-    <t>638523760767027872</t>
-  </si>
-  <si>
-    <t>638523763005563693</t>
-  </si>
-  <si>
     <t>Nope</t>
   </si>
   <si>
-    <t>638523763442450893</t>
-  </si>
-  <si>
     <t>upload the neccessary docs such as DTP form</t>
   </si>
   <si>
-    <t>638523768580714366</t>
-  </si>
-  <si>
     <t>The loading was slow. The navigation is not intuitive.</t>
   </si>
   <si>
     <t>A more comprehensive contents list</t>
   </si>
   <si>
-    <t>638523771605237065</t>
-  </si>
-  <si>
-    <t>638523771655202546</t>
-  </si>
-  <si>
     <t>Not really, every times are valuable for my career success</t>
   </si>
   <si>
     <t>Yes of course, I think we can promote time, increase hiring time</t>
   </si>
   <si>
-    <t>638523771658639950</t>
-  </si>
-  <si>
     <t>A bit confusing to navigate shortlisted listings that we have actually been shortlisted for VS job listings that we have liked and saved.</t>
   </si>
   <si>
     <t>Would be good if the job listing interface has an email reminder for job listings that we have been shortlisted for or rejected from rather than continuously navigating the portal to look for the outcome.</t>
-  </si>
-  <si>
-    <t>638523773977270677</t>
-  </si>
-  <si>
-    <t>638523776033412450</t>
-  </si>
-  <si>
-    <t>638523778407837888</t>
   </si>
   <si>
     <t>'- unsure where certain documents were (eg the placement letter)
@@ -523,157 +328,79 @@
     <t>'- allowing us to see the order of preference we indicated for the internships we applied more easily without having to click into a listing, click to see the order and exit. makes it easier to see and check</t>
   </si>
   <si>
-    <t>638523778561178741</t>
-  </si>
-  <si>
     <t>My to-do list is confusing. I can't see an overview of what i need to do. Instead it only reveals what is due only after i complete it one by one.</t>
   </si>
   <si>
     <t>More accurate job postings. I once had an interview with a hirer from a job i found on inplace for summer internship. She said she was not looking for any summer interns and was shocked to hear that i found this job listing via inplace. It was a complete waste of time.</t>
   </si>
   <si>
-    <t>638523778751782958</t>
-  </si>
-  <si>
     <t>Other functions/tabs that were not  "Available" and "Confirmed"</t>
   </si>
   <si>
     <t>The submission button. Please allow us to view the resume that we submitted/edit our submission. Also, allow us to delete applications from deleted job opportunities</t>
   </si>
   <si>
-    <t>638523778949767525</t>
-  </si>
-  <si>
     <t>Add more opportunities. Think careeraxis feels much better than inplace</t>
   </si>
   <si>
-    <t>638523782980514100</t>
-  </si>
-  <si>
     <t>The surveys and assessments webpage seemed unnecessary and the website did not explain its function clearly</t>
   </si>
   <si>
     <t>A tracking system in which applicants can see the timeline of a company receiving and going through a potential applicant's internship application and the various steps the company is taking to reach a decision so an applicant is assured during the process rather than waiting endlessly to hear from the company (usually many never contact back)</t>
   </si>
   <si>
-    <t>638523783611889460</t>
-  </si>
-  <si>
     <t>Filter by industry, would save a lot of time</t>
   </si>
   <si>
-    <t>638523795353649711</t>
-  </si>
-  <si>
-    <t>638523798576372689</t>
-  </si>
-  <si>
-    <t>638523806716454391</t>
-  </si>
-  <si>
-    <t>638523809014714410</t>
-  </si>
-  <si>
     <t>I don’t know how to check the companies I applied</t>
   </si>
   <si>
     <t>The checking of companies I applied</t>
   </si>
   <si>
-    <t>638523813713378485</t>
-  </si>
-  <si>
     <t>I felt that this should also be marketed to only those who want "credit bearing internship". No matter how many times I convince my other friend to do it, she doesnt want to do it because "it is meant for credit bearing internship and NOT for non credit bearing internship".</t>
   </si>
   <si>
-    <t>638523862783561348</t>
-  </si>
-  <si>
-    <t>638523875997312096</t>
-  </si>
-  <si>
     <t>There were so many filters that was of no use and the lumping of the different schools' internship make things much more complicated</t>
   </si>
   <si>
     <t>I would include much more functions like filters for salary, location, type of job, sector and even allow easier searches of the company or internship name by their codes. I would also send out reminders of extension way earlier rather than having it send out during finals period. For example, I was only informed of the latest extension 10 days after the presumed deadline which totally defeated the purpose of the extension.</t>
   </si>
   <si>
-    <t>638523882268687846</t>
-  </si>
-  <si>
     <t>Pretty useful</t>
   </si>
   <si>
     <t>Not really</t>
   </si>
   <si>
-    <t>638523890329507407</t>
-  </si>
-  <si>
-    <t>638523902084911289</t>
-  </si>
-  <si>
     <t>Crashes</t>
   </si>
   <si>
-    <t>638523907504417223</t>
-  </si>
-  <si>
-    <t>638523911511709855</t>
-  </si>
-  <si>
-    <t>638523929436650381</t>
-  </si>
-  <si>
-    <t>638523943449632791</t>
-  </si>
-  <si>
     <t>I cannot access to internship that is not meant to be for my major. I found this unnecessary because I also wish to apply to many other job description.</t>
   </si>
   <si>
     <t>The feature I want to add is tracking of the application procedure.</t>
   </si>
   <si>
-    <t>638523951317801655</t>
-  </si>
-  <si>
-    <t>638523958402150822</t>
-  </si>
-  <si>
-    <t>638524023432141331</t>
-  </si>
-  <si>
     <t>N/a</t>
   </si>
   <si>
     <t>Improve the UI of the website and increase the speed of loading the website</t>
   </si>
   <si>
-    <t>638524093066234851</t>
-  </si>
-  <si>
     <t>No, most of the features are useful.</t>
   </si>
   <si>
     <t>Sorting and filtering based on different criteria</t>
   </si>
   <si>
-    <t>638524100262519721</t>
-  </si>
-  <si>
     <t>The process of my application</t>
   </si>
   <si>
-    <t>638524116556941112</t>
-  </si>
-  <si>
     <t>NIK</t>
   </si>
   <si>
     <t>Can load faster</t>
-  </si>
-  <si>
-    <t>638524139352823092</t>
   </si>
   <si>
     <t>Yes.
@@ -685,82 +412,43 @@
     <t>Yes, a feature allowing us to categorize opportunities (instead of just shortlisting them) would be nice. This can help with organizing/identifying the different steps the application process is at.</t>
   </si>
   <si>
-    <t>638524186948809875</t>
-  </si>
-  <si>
     <t>Yes increase the number of internships i can apply to</t>
   </si>
   <si>
-    <t>638524238073964472</t>
-  </si>
-  <si>
     <t>Yes like i dont get it why survey and assessment needs to open up another tab. Instructions were very unclear and when I secure my internship a lot of function were closed to me</t>
   </si>
   <si>
     <t>out of all the jobs i apply, I ever only get 1 notification to tell me that I was rejected. I think employees don't even log in to their inplace</t>
   </si>
   <si>
-    <t>638524602847844319</t>
-  </si>
-  <si>
-    <t>638524831949256224</t>
-  </si>
-  <si>
-    <t>638524846702676902</t>
-  </si>
-  <si>
     <t>no specific features, but in general, it seems like cao/students are forced to work around inplace, rather than the other way around. for example, when submitting my self-sourced form, i was asked to enter "50 days" as the attachment length despite my attachment being a different length.</t>
   </si>
   <si>
     <t>it would be great if everyone involved in career stuff at ntu collaborated effectively to put everything in one place, rather than having students jump between spam emails, telegram channels, padlets, ms teams, websites, inplace, etc. i know a technological university is capable of this...</t>
   </si>
   <si>
-    <t>638525065292466353</t>
-  </si>
-  <si>
-    <t>638525109296479134</t>
-  </si>
-  <si>
     <t>Share documents tab, instruction was not clear enough (on the platform) that the document will only be available after seucring an internship and poor naming convention</t>
   </si>
   <si>
     <t>Integrated resume and cover letter auto rating</t>
   </si>
   <si>
-    <t>638525694596080375</t>
-  </si>
-  <si>
     <t>some positions were already closed</t>
   </si>
   <si>
     <t>by updating the latest jobs available will be helpful</t>
   </si>
   <si>
-    <t>638525731121985018</t>
-  </si>
-  <si>
     <t>Not necessarily</t>
   </si>
   <si>
     <t>pushing employers to respond quicker...:(</t>
   </si>
   <si>
-    <t>638525815267242994</t>
-  </si>
-  <si>
     <t>every time we look into one job and want to go back to the previous page, it will automatically go to the first job again</t>
   </si>
   <si>
-    <t>638525881573928452</t>
-  </si>
-  <si>
-    <t>638525908796227087</t>
-  </si>
-  <si>
     <t>The method of applicable can provide real-time update</t>
-  </si>
-  <si>
-    <t>638527284611350986</t>
   </si>
   <si>
     <t>The priority of the job application felt unnecessary as all job postings were equal to me, and I felt that it did not help the application stand out to employers.</t>
@@ -771,21 +459,6 @@
 The drag and drop for the job application priority selection is not very reliable -- e.g. when the priority list gets long and the list becomes scrollable. When e.g. I want to drag the current 20th item to the 1st one, I click and hold the 20th item and scroll up to put it in the first position, it will place the item wrongly.</t>
   </si>
   <si>
-    <t>638529149609977924</t>
-  </si>
-  <si>
-    <t>638529191943796947</t>
-  </si>
-  <si>
-    <t>638529705134010499</t>
-  </si>
-  <si>
-    <t>638529738478371898</t>
-  </si>
-  <si>
-    <t>638547387094051852</t>
-  </si>
-  <si>
     <t>1.1.A</t>
   </si>
   <si>
@@ -849,307 +522,634 @@
     <t>Pre Record ID</t>
   </si>
   <si>
-    <t>638495453649621314</t>
-  </si>
-  <si>
-    <t>638499892060137566</t>
-  </si>
-  <si>
-    <t>638501764277798278</t>
-  </si>
-  <si>
-    <t>638495447566889919</t>
-  </si>
-  <si>
-    <t>638499797322870521</t>
-  </si>
-  <si>
-    <t>638495575630459523</t>
-  </si>
-  <si>
-    <t>638495548398456770</t>
-  </si>
-  <si>
-    <t>638500134874294147</t>
-  </si>
-  <si>
-    <t>638503059797730001</t>
-  </si>
-  <si>
-    <t>638503042762997156</t>
-  </si>
-  <si>
-    <t>638495465085521786</t>
-  </si>
-  <si>
-    <t>638503154609565477</t>
-  </si>
-  <si>
-    <t>638495500640215034</t>
-  </si>
-  <si>
-    <t>638503170925202224</t>
-  </si>
-  <si>
-    <t>638495466669694029</t>
-  </si>
-  <si>
-    <t>638503071840743973</t>
-  </si>
-  <si>
-    <t>638495455304858499</t>
-  </si>
-  <si>
-    <t>638508430289980203</t>
-  </si>
-  <si>
-    <t>638499788893383898</t>
-  </si>
-  <si>
-    <t>638503041524523111</t>
-  </si>
-  <si>
-    <t>638499853872164254</t>
-  </si>
-  <si>
-    <t>638495555271968767</t>
-  </si>
-  <si>
-    <t>638495446658199116</t>
-  </si>
-  <si>
-    <t>638495454264380084</t>
-  </si>
-  <si>
-    <t>638422199474098241</t>
-  </si>
-  <si>
-    <t>638501819964340113</t>
-  </si>
-  <si>
-    <t>638504277415890297</t>
-  </si>
-  <si>
-    <t>638422199526059137</t>
-  </si>
-  <si>
-    <t>638495465057842008</t>
-  </si>
-  <si>
-    <t>638495455262981323</t>
-  </si>
-  <si>
-    <t>638496657993149951</t>
-  </si>
-  <si>
-    <t>638495468187256604</t>
-  </si>
-  <si>
-    <t>638506414907448168</t>
-  </si>
-  <si>
-    <t>638495448105731816</t>
-  </si>
-  <si>
-    <t>638495552358180903</t>
-  </si>
-  <si>
-    <t>638500272029223166</t>
-  </si>
-  <si>
-    <t>638422243779989951</t>
-  </si>
-  <si>
-    <t>638503062677996802</t>
-  </si>
-  <si>
-    <t>638499787643550704</t>
-  </si>
-  <si>
-    <t>638503041854836650</t>
-  </si>
-  <si>
-    <t>638503047941012845</t>
-  </si>
-  <si>
-    <t>638422251223979383</t>
-  </si>
-  <si>
-    <t>638495460316269516</t>
-  </si>
-  <si>
-    <t>638422231974830437</t>
-  </si>
-  <si>
-    <t>638503103466156017</t>
-  </si>
-  <si>
-    <t>638495461173857244</t>
-  </si>
-  <si>
-    <t>638495591773093693</t>
-  </si>
-  <si>
-    <t>638415752047127258</t>
-  </si>
-  <si>
-    <t>638495558735052865</t>
-  </si>
-  <si>
-    <t>638495462791534680</t>
-  </si>
-  <si>
-    <t>638422239780117698</t>
-  </si>
-  <si>
-    <t>638500111384492808</t>
-  </si>
-  <si>
-    <t>638503064029885684</t>
-  </si>
-  <si>
-    <t>638495612919297244</t>
-  </si>
-  <si>
-    <t>638495458459000895</t>
-  </si>
-  <si>
-    <t>638421391079507587</t>
-  </si>
-  <si>
-    <t>638503127288337144</t>
-  </si>
-  <si>
-    <t>638422255920373057</t>
-  </si>
-  <si>
-    <t>638495470620039191</t>
-  </si>
-  <si>
-    <t>638499786486232428</t>
-  </si>
-  <si>
-    <t>638503070856864544</t>
-  </si>
-  <si>
-    <t>638422204484648155</t>
-  </si>
-  <si>
-    <t>638499824553229429</t>
-  </si>
-  <si>
-    <t>638503241858691540</t>
-  </si>
-  <si>
-    <t>638495522786253931</t>
-  </si>
-  <si>
-    <t>638495462364833326</t>
-  </si>
-  <si>
-    <t>638495713338246635</t>
-  </si>
-  <si>
-    <t>638495446637988237</t>
-  </si>
-  <si>
-    <t>638500101348349364</t>
-  </si>
-  <si>
-    <t>638495737595261393</t>
-  </si>
-  <si>
-    <t>638415149321191926</t>
-  </si>
-  <si>
-    <t>638495479371312669</t>
-  </si>
-  <si>
-    <t>638500010892898025</t>
-  </si>
-  <si>
-    <t>638495596659920820</t>
-  </si>
-  <si>
-    <t>638421076344769890</t>
-  </si>
-  <si>
-    <t>638495463758835773</t>
-  </si>
-  <si>
-    <t>638495624275541367</t>
-  </si>
-  <si>
-    <t>638495454518131924</t>
-  </si>
-  <si>
-    <t>638511572591181521</t>
-  </si>
-  <si>
-    <t>638506152151119942</t>
-  </si>
-  <si>
-    <t>638422602672948149</t>
-  </si>
-  <si>
-    <t>638507757093936886</t>
-  </si>
-  <si>
-    <t>638503065900192781</t>
-  </si>
-  <si>
-    <t>638495541714077052</t>
-  </si>
-  <si>
-    <t>638422264623147867</t>
-  </si>
-  <si>
-    <t>638499930774080401</t>
-  </si>
-  <si>
-    <t>638495487109903150</t>
-  </si>
-  <si>
-    <t>638503947472525528</t>
-  </si>
-  <si>
-    <t>638503235703873014</t>
-  </si>
-  <si>
-    <t>638503076900753826</t>
-  </si>
-  <si>
-    <t>638495459107032111</t>
-  </si>
-  <si>
-    <t>638499791495339963</t>
-  </si>
-  <si>
-    <t>638499786968867532</t>
-  </si>
-  <si>
-    <t>638495667887890535</t>
-  </si>
-  <si>
-    <t>638500665378185199</t>
-  </si>
-  <si>
-    <t>638496183951611405</t>
-  </si>
-  <si>
-    <t>638415173481016454</t>
-  </si>
-  <si>
-    <t>638495454720892063</t>
-  </si>
-  <si>
-    <t>638495455235753960</t>
-  </si>
-  <si>
-    <t>638503172056475787</t>
-  </si>
-  <si>
     <t>Participation_Status</t>
+  </si>
+  <si>
+    <t>495453649621314</t>
+  </si>
+  <si>
+    <t>499892060137566</t>
+  </si>
+  <si>
+    <t>501764277798278</t>
+  </si>
+  <si>
+    <t>495447566889919</t>
+  </si>
+  <si>
+    <t>499797322870521</t>
+  </si>
+  <si>
+    <t>495575630459523</t>
+  </si>
+  <si>
+    <t>495548398456770</t>
+  </si>
+  <si>
+    <t>500134874294147</t>
+  </si>
+  <si>
+    <t>503059797730001</t>
+  </si>
+  <si>
+    <t>503042762997156</t>
+  </si>
+  <si>
+    <t>495465085521786</t>
+  </si>
+  <si>
+    <t>503154609565477</t>
+  </si>
+  <si>
+    <t>495500640215034</t>
+  </si>
+  <si>
+    <t>503170925202224</t>
+  </si>
+  <si>
+    <t>495466669694029</t>
+  </si>
+  <si>
+    <t>503071840743973</t>
+  </si>
+  <si>
+    <t>495455304858499</t>
+  </si>
+  <si>
+    <t>508430289980203</t>
+  </si>
+  <si>
+    <t>499788893383898</t>
+  </si>
+  <si>
+    <t>503041524523111</t>
+  </si>
+  <si>
+    <t>499853872164254</t>
+  </si>
+  <si>
+    <t>495555271968767</t>
+  </si>
+  <si>
+    <t>495446658199116</t>
+  </si>
+  <si>
+    <t>495454264380084</t>
+  </si>
+  <si>
+    <t>422199474098241</t>
+  </si>
+  <si>
+    <t>501819964340113</t>
+  </si>
+  <si>
+    <t>504277415890297</t>
+  </si>
+  <si>
+    <t>422199526059137</t>
+  </si>
+  <si>
+    <t>495465057842008</t>
+  </si>
+  <si>
+    <t>495455262981323</t>
+  </si>
+  <si>
+    <t>496657993149951</t>
+  </si>
+  <si>
+    <t>495468187256604</t>
+  </si>
+  <si>
+    <t>506414907448168</t>
+  </si>
+  <si>
+    <t>495448105731816</t>
+  </si>
+  <si>
+    <t>495552358180903</t>
+  </si>
+  <si>
+    <t>500272029223166</t>
+  </si>
+  <si>
+    <t>422243779989951</t>
+  </si>
+  <si>
+    <t>503062677996802</t>
+  </si>
+  <si>
+    <t>499787643550704</t>
+  </si>
+  <si>
+    <t>503041854836650</t>
+  </si>
+  <si>
+    <t>503047941012845</t>
+  </si>
+  <si>
+    <t>422251223979383</t>
+  </si>
+  <si>
+    <t>495460316269516</t>
+  </si>
+  <si>
+    <t>422231974830437</t>
+  </si>
+  <si>
+    <t>503103466156017</t>
+  </si>
+  <si>
+    <t>495461173857244</t>
+  </si>
+  <si>
+    <t>495591773093693</t>
+  </si>
+  <si>
+    <t>415752047127258</t>
+  </si>
+  <si>
+    <t>495558735052865</t>
+  </si>
+  <si>
+    <t>495462791534680</t>
+  </si>
+  <si>
+    <t>422239780117698</t>
+  </si>
+  <si>
+    <t>500111384492808</t>
+  </si>
+  <si>
+    <t>503064029885684</t>
+  </si>
+  <si>
+    <t>495612919297244</t>
+  </si>
+  <si>
+    <t>495458459000895</t>
+  </si>
+  <si>
+    <t>421391079507587</t>
+  </si>
+  <si>
+    <t>503127288337144</t>
+  </si>
+  <si>
+    <t>422255920373057</t>
+  </si>
+  <si>
+    <t>495470620039191</t>
+  </si>
+  <si>
+    <t>499786486232428</t>
+  </si>
+  <si>
+    <t>503070856864544</t>
+  </si>
+  <si>
+    <t>422204484648155</t>
+  </si>
+  <si>
+    <t>499824553229429</t>
+  </si>
+  <si>
+    <t>503241858691540</t>
+  </si>
+  <si>
+    <t>495522786253931</t>
+  </si>
+  <si>
+    <t>495462364833326</t>
+  </si>
+  <si>
+    <t>495713338246635</t>
+  </si>
+  <si>
+    <t>495446637988237</t>
+  </si>
+  <si>
+    <t>500101348349364</t>
+  </si>
+  <si>
+    <t>495737595261393</t>
+  </si>
+  <si>
+    <t>415149321191926</t>
+  </si>
+  <si>
+    <t>495479371312669</t>
+  </si>
+  <si>
+    <t>500010892898025</t>
+  </si>
+  <si>
+    <t>495596659920820</t>
+  </si>
+  <si>
+    <t>421076344769890</t>
+  </si>
+  <si>
+    <t>495463758835773</t>
+  </si>
+  <si>
+    <t>495624275541367</t>
+  </si>
+  <si>
+    <t>495454518131924</t>
+  </si>
+  <si>
+    <t>511572591181521</t>
+  </si>
+  <si>
+    <t>506152151119942</t>
+  </si>
+  <si>
+    <t>422602672948149</t>
+  </si>
+  <si>
+    <t>507757093936886</t>
+  </si>
+  <si>
+    <t>503065900192781</t>
+  </si>
+  <si>
+    <t>495541714077052</t>
+  </si>
+  <si>
+    <t>422264623147867</t>
+  </si>
+  <si>
+    <t>499930774080401</t>
+  </si>
+  <si>
+    <t>495487109903150</t>
+  </si>
+  <si>
+    <t>503947472525528</t>
+  </si>
+  <si>
+    <t>503235703873014</t>
+  </si>
+  <si>
+    <t>503076900753826</t>
+  </si>
+  <si>
+    <t>495459107032111</t>
+  </si>
+  <si>
+    <t>499791495339963</t>
+  </si>
+  <si>
+    <t>499786968867532</t>
+  </si>
+  <si>
+    <t>495667887890535</t>
+  </si>
+  <si>
+    <t>500665378185199</t>
+  </si>
+  <si>
+    <t>496183951611405</t>
+  </si>
+  <si>
+    <t>415173481016454</t>
+  </si>
+  <si>
+    <t>495454720892063</t>
+  </si>
+  <si>
+    <t>495455235753960</t>
+  </si>
+  <si>
+    <t>503172056475787</t>
+  </si>
+  <si>
+    <t>523731957472966</t>
+  </si>
+  <si>
+    <t>523731968613700</t>
+  </si>
+  <si>
+    <t>523731978737064</t>
+  </si>
+  <si>
+    <t>523731989943197</t>
+  </si>
+  <si>
+    <t>523732122510019</t>
+  </si>
+  <si>
+    <t>523732123447677</t>
+  </si>
+  <si>
+    <t>523732130022390</t>
+  </si>
+  <si>
+    <t>523732139357080</t>
+  </si>
+  <si>
+    <t>523732145306155</t>
+  </si>
+  <si>
+    <t>523732180798599</t>
+  </si>
+  <si>
+    <t>523732207807543</t>
+  </si>
+  <si>
+    <t>523732242270650</t>
+  </si>
+  <si>
+    <t>523732318258243</t>
+  </si>
+  <si>
+    <t>523732340256243</t>
+  </si>
+  <si>
+    <t>523732430842578</t>
+  </si>
+  <si>
+    <t>523732479795385</t>
+  </si>
+  <si>
+    <t>523732577809674</t>
+  </si>
+  <si>
+    <t>523732613714372</t>
+  </si>
+  <si>
+    <t>523732755992143</t>
+  </si>
+  <si>
+    <t>523732795671098</t>
+  </si>
+  <si>
+    <t>523733315502627</t>
+  </si>
+  <si>
+    <t>523733463644702</t>
+  </si>
+  <si>
+    <t>523733939744656</t>
+  </si>
+  <si>
+    <t>523734328437385</t>
+  </si>
+  <si>
+    <t>523734623595487</t>
+  </si>
+  <si>
+    <t>523735235727901</t>
+  </si>
+  <si>
+    <t>523735425196198</t>
+  </si>
+  <si>
+    <t>523736029308092</t>
+  </si>
+  <si>
+    <t>523736099629773</t>
+  </si>
+  <si>
+    <t>523736144416377</t>
+  </si>
+  <si>
+    <t>523736350522447</t>
+  </si>
+  <si>
+    <t>523736723161412</t>
+  </si>
+  <si>
+    <t>523736852061305</t>
+  </si>
+  <si>
+    <t>523737024839943</t>
+  </si>
+  <si>
+    <t>523737992015905</t>
+  </si>
+  <si>
+    <t>523739090150495</t>
+  </si>
+  <si>
+    <t>523739217181364</t>
+  </si>
+  <si>
+    <t>523739842775645</t>
+  </si>
+  <si>
+    <t>523741136853715</t>
+  </si>
+  <si>
+    <t>523742118047105</t>
+  </si>
+  <si>
+    <t>523742617167890</t>
+  </si>
+  <si>
+    <t>523742819752204</t>
+  </si>
+  <si>
+    <t>523743242261739</t>
+  </si>
+  <si>
+    <t>523743555300469</t>
+  </si>
+  <si>
+    <t>523743733470448</t>
+  </si>
+  <si>
+    <t>523746077103880</t>
+  </si>
+  <si>
+    <t>523748234109065</t>
+  </si>
+  <si>
+    <t>523749412763236</t>
+  </si>
+  <si>
+    <t>523750982319479</t>
+  </si>
+  <si>
+    <t>523751853333720</t>
+  </si>
+  <si>
+    <t>523754362481920</t>
+  </si>
+  <si>
+    <t>523754388682278</t>
+  </si>
+  <si>
+    <t>523754726160451</t>
+  </si>
+  <si>
+    <t>523756635796187</t>
+  </si>
+  <si>
+    <t>523756682102598</t>
+  </si>
+  <si>
+    <t>523760767027872</t>
+  </si>
+  <si>
+    <t>523763005563693</t>
+  </si>
+  <si>
+    <t>523763442450893</t>
+  </si>
+  <si>
+    <t>523768580714366</t>
+  </si>
+  <si>
+    <t>523771605237065</t>
+  </si>
+  <si>
+    <t>523771655202546</t>
+  </si>
+  <si>
+    <t>523771658639950</t>
+  </si>
+  <si>
+    <t>523773977270677</t>
+  </si>
+  <si>
+    <t>523776033412450</t>
+  </si>
+  <si>
+    <t>523778407837888</t>
+  </si>
+  <si>
+    <t>523778561178741</t>
+  </si>
+  <si>
+    <t>523778751782958</t>
+  </si>
+  <si>
+    <t>523778949767525</t>
+  </si>
+  <si>
+    <t>523782980514100</t>
+  </si>
+  <si>
+    <t>523783611889460</t>
+  </si>
+  <si>
+    <t>523795353649711</t>
+  </si>
+  <si>
+    <t>523798576372689</t>
+  </si>
+  <si>
+    <t>523806716454391</t>
+  </si>
+  <si>
+    <t>523809014714410</t>
+  </si>
+  <si>
+    <t>523813713378485</t>
+  </si>
+  <si>
+    <t>523862783561348</t>
+  </si>
+  <si>
+    <t>523875997312096</t>
+  </si>
+  <si>
+    <t>523882268687846</t>
+  </si>
+  <si>
+    <t>523890329507407</t>
+  </si>
+  <si>
+    <t>523902084911289</t>
+  </si>
+  <si>
+    <t>523907504417223</t>
+  </si>
+  <si>
+    <t>523911511709855</t>
+  </si>
+  <si>
+    <t>523929436650381</t>
+  </si>
+  <si>
+    <t>523943449632791</t>
+  </si>
+  <si>
+    <t>523951317801655</t>
+  </si>
+  <si>
+    <t>523958402150822</t>
+  </si>
+  <si>
+    <t>524023432141331</t>
+  </si>
+  <si>
+    <t>524093066234851</t>
+  </si>
+  <si>
+    <t>524100262519721</t>
+  </si>
+  <si>
+    <t>524116556941112</t>
+  </si>
+  <si>
+    <t>524139352823092</t>
+  </si>
+  <si>
+    <t>524186948809875</t>
+  </si>
+  <si>
+    <t>524238073964472</t>
+  </si>
+  <si>
+    <t>524602847844319</t>
+  </si>
+  <si>
+    <t>524831949256224</t>
+  </si>
+  <si>
+    <t>524846702676902</t>
+  </si>
+  <si>
+    <t>525065292466353</t>
+  </si>
+  <si>
+    <t>525109296479134</t>
+  </si>
+  <si>
+    <t>525694596080375</t>
+  </si>
+  <si>
+    <t>525731121985018</t>
+  </si>
+  <si>
+    <t>525815267242994</t>
+  </si>
+  <si>
+    <t>525881573928452</t>
+  </si>
+  <si>
+    <t>525908796227087</t>
+  </si>
+  <si>
+    <t>527284611350986</t>
+  </si>
+  <si>
+    <t>529149609977924</t>
+  </si>
+  <si>
+    <t>529191943796947</t>
+  </si>
+  <si>
+    <t>529705134010499</t>
+  </si>
+  <si>
+    <t>529738478371898</t>
+  </si>
+  <si>
+    <t>547387094051852</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1229,10 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm:ss\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1259,7 +1259,7 @@
   <tableColumns count="44">
     <tableColumn id="1" xr3:uid="{9DAB8F59-8C1A-4B26-967D-E576D3052E64}" name="Record ID" dataDxfId="3"/>
     <tableColumn id="43" xr3:uid="{0D87E13A-F1E1-470A-A02D-6B35D30DE793}" name="Pre Record ID" dataDxfId="2"/>
-    <tableColumn id="44" xr3:uid="{42C7E90D-23A5-4A4D-A39E-2EDFBC15B144}" name="Participation_Status" dataDxfId="0">
+    <tableColumn id="44" xr3:uid="{42C7E90D-23A5-4A4D-A39E-2EDFBC15B144}" name="Participation_Status" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{65214E73-9362-4743-AC51-7D5C88D5DFD7}" name="1.1.A"/>
@@ -1302,7 +1302,7 @@
     <tableColumn id="39" xr3:uid="{2E88A4B2-63AE-41A2-9B41-A3AFEB775193}" name="3.1 (Q6_A_7)"/>
     <tableColumn id="40" xr3:uid="{8277E30F-AA60-48EC-A82B-0D3DF514FC87}" name="3.2 (Q7)"/>
     <tableColumn id="41" xr3:uid="{37B3B34F-3847-4DB5-8993-F7C1C9138E19}" name="3.3 (Q8)"/>
-    <tableColumn id="42" xr3:uid="{7FDA39D5-A477-4A0B-924F-B00CCEBDE6F6}" name="COMPLETED" dataDxfId="1"/>
+    <tableColumn id="42" xr3:uid="{7FDA39D5-A477-4A0B-924F-B00CCEBDE6F6}" name="COMPLETED" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1625,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A339CFE-998F-42FB-8CA9-1437D425F838}">
-  <dimension ref="A1:CF135"/>
+  <dimension ref="A1:CE135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AW13" sqref="AW13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,70 +1648,70 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>158</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>248</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>249</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>251</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>253</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>254</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>255</v>
+        <v>146</v>
       </c>
       <c r="M1" t="s">
-        <v>256</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>258</v>
+        <v>149</v>
       </c>
       <c r="P1" t="s">
-        <v>259</v>
+        <v>150</v>
       </c>
       <c r="Q1" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
-        <v>261</v>
+        <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="T1" t="s">
-        <v>263</v>
+        <v>154</v>
       </c>
       <c r="U1" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="V1" t="s">
-        <v>265</v>
+        <v>156</v>
       </c>
       <c r="W1" t="s">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="X1" t="s">
         <v>1</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -1914,10 +1914,10 @@
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="C3" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -2038,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="AP3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR3" s="1">
         <v>45439.431875000002</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="C4" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -2173,10 +2173,10 @@
         <v>4</v>
       </c>
       <c r="AP4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AR4" s="1">
         <v>45439.435763888891</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="C5" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -2308,10 +2308,10 @@
         <v>2</v>
       </c>
       <c r="AP5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AQ5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR5" s="1">
         <v>45439.43178240741</v>
@@ -2319,10 +2319,10 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="C6" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -2443,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="AP6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AR6" s="1">
         <v>45439.432650462964</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="C7" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -2578,10 +2578,10 @@
         <v>3</v>
       </c>
       <c r="AP7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AR7" s="1">
         <v>45439.431990740741</v>
@@ -2589,10 +2589,10 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="C8" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -2713,10 +2713,10 @@
         <v>4</v>
       </c>
       <c r="AP8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AQ8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AR8" s="1">
         <v>45439.433240740742</v>
@@ -2724,10 +2724,10 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="C9" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -2848,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="AP9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="AR9" s="1">
         <v>45439.43273148148</v>
@@ -2859,10 +2859,10 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="C10" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -2983,10 +2983,10 @@
         <v>4</v>
       </c>
       <c r="AP10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AQ10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AR10" s="1">
         <v>45439.452974537038</v>
@@ -2994,10 +2994,10 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="C11" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -3118,10 +3118,10 @@
         <v>3</v>
       </c>
       <c r="AP11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AQ11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AR11" s="1">
         <v>45439.433657407404</v>
@@ -3129,10 +3129,10 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>270</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>170</v>
       </c>
       <c r="C12" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -3253,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="AP12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR12" s="1">
         <v>45439.431655092594</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="C13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -3388,10 +3388,10 @@
         <v>5</v>
       </c>
       <c r="AP13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR13" s="1">
         <v>45439.432187500002</v>
@@ -3399,10 +3399,10 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="C14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -3523,10 +3523,10 @@
         <v>3</v>
       </c>
       <c r="AP14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR14" s="1">
         <v>45439.431655092594</v>
@@ -3534,10 +3534,10 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="C15" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -3658,10 +3658,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR15" s="1">
         <v>45439.431886574072</v>
@@ -3669,10 +3669,10 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
-        <v>282</v>
+        <v>174</v>
       </c>
       <c r="C16" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -3793,10 +3793,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AQ16" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AR16" s="1">
         <v>45439.434027777781</v>
@@ -3804,10 +3804,10 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="C17" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -3928,10 +3928,10 @@
         <v>4</v>
       </c>
       <c r="AP17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR17" s="1">
         <v>45439.431886574072</v>
@@ -3939,10 +3939,10 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="C18" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -4063,10 +4063,10 @@
         <v>3</v>
       </c>
       <c r="AP18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR18" s="1">
         <v>45439.432812500003</v>
@@ -4074,10 +4074,10 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="B19" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="C19" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -4198,10 +4198,10 @@
         <v>3</v>
       </c>
       <c r="AP19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR19" s="1">
         <v>45439.433622685188</v>
@@ -4209,10 +4209,10 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>63</v>
+        <v>278</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="C20" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -4333,10 +4333,10 @@
         <v>4</v>
       </c>
       <c r="AP20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AR20" s="1">
         <v>45439.43309027778</v>
@@ -4344,10 +4344,10 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>279</v>
       </c>
       <c r="B21" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="C21" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -4468,10 +4468,10 @@
         <v>5</v>
       </c>
       <c r="AP21" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="AQ21" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="AR21" s="1">
         <v>45439.432858796295</v>
@@ -4479,10 +4479,10 @@
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>280</v>
       </c>
       <c r="B22" t="s">
-        <v>288</v>
+        <v>180</v>
       </c>
       <c r="C22" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -4603,10 +4603,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AQ22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR22" s="1">
         <v>45439.433287037034</v>
@@ -4614,10 +4614,10 @@
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="B23" t="s">
-        <v>289</v>
+        <v>181</v>
       </c>
       <c r="C23" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -4738,10 +4738,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AQ23" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AR23" s="1">
         <v>45439.432719907411</v>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="C24" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -4873,10 +4873,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AQ24" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AR24" s="1">
         <v>45439.433287037034</v>
@@ -4884,10 +4884,10 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>75</v>
+        <v>283</v>
       </c>
       <c r="B25" t="s">
-        <v>291</v>
+        <v>183</v>
       </c>
       <c r="C25" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -5008,10 +5008,10 @@
         <v>3</v>
       </c>
       <c r="AP25" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AQ25" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="AR25" s="1">
         <v>45439.433148148149</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="B26" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="C26" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="AQ26" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AR26" s="1">
         <v>45439.435601851852</v>
@@ -5154,10 +5154,10 @@
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="C27" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -5278,10 +5278,10 @@
         <v>3</v>
       </c>
       <c r="AP27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR27" s="1">
         <v>45439.435810185183</v>
@@ -5289,10 +5289,10 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>294</v>
+        <v>186</v>
       </c>
       <c r="C28" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -5413,10 +5413,10 @@
         <v>4</v>
       </c>
       <c r="AP28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ28" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="AR28" s="1">
         <v>45439.439988425926</v>
@@ -5424,10 +5424,10 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>187</v>
       </c>
       <c r="C29" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -5548,10 +5548,10 @@
         <v>3</v>
       </c>
       <c r="AP29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR29" s="1">
         <v>45439.436539351853</v>
@@ -5559,10 +5559,10 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>84</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s">
-        <v>296</v>
+        <v>188</v>
       </c>
       <c r="C30" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -5683,10 +5683,10 @@
         <v>4</v>
       </c>
       <c r="AP30" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AQ30" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="AR30" s="1">
         <v>45439.443680555552</v>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s">
-        <v>297</v>
+        <v>189</v>
       </c>
       <c r="C31" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -5818,10 +5818,10 @@
         <v>4</v>
       </c>
       <c r="AP31" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="AQ31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR31" s="1">
         <v>45439.436574074076</v>
@@ -5829,10 +5829,10 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>190</v>
       </c>
       <c r="C32" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -5953,10 +5953,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR32" s="1">
         <v>45439.437384259261</v>
@@ -5964,7 +5964,7 @@
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="C33" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -6085,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="AP33" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="AQ33" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="AR33" s="1">
         <v>45439.438819444447</v>
@@ -6096,10 +6096,10 @@
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="C34" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -6220,10 +6220,10 @@
         <v>4</v>
       </c>
       <c r="AP34" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AQ34" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AR34" s="1">
         <v>45439.44190972222</v>
@@ -6231,10 +6231,10 @@
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s">
-        <v>300</v>
+        <v>192</v>
       </c>
       <c r="C35" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -6355,10 +6355,10 @@
         <v>3</v>
       </c>
       <c r="AP35" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ35" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR35" s="1">
         <v>45439.437523148146</v>
@@ -6366,10 +6366,10 @@
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="B36" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
       <c r="C36" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -6490,10 +6490,10 @@
         <v>5</v>
       </c>
       <c r="AP36" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AQ36" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AR36" s="1">
         <v>45439.439131944448</v>
@@ -6501,10 +6501,10 @@
     </row>
     <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>95</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>194</v>
       </c>
       <c r="C37" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -6625,10 +6625,10 @@
         <v>4</v>
       </c>
       <c r="AP37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ37" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="AR37" s="1">
         <v>45439.438819444447</v>
@@ -6636,10 +6636,10 @@
     </row>
     <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="C38" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -6760,10 +6760,10 @@
         <v>2</v>
       </c>
       <c r="AP38" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AQ38" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AR38" s="1">
         <v>45439.439050925925</v>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="C39" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -6895,10 +6895,10 @@
         <v>3</v>
       </c>
       <c r="AP39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ39" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="AR39" s="1">
         <v>45439.440995370373</v>
@@ -6906,10 +6906,10 @@
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>103</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="C40" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -7030,10 +7030,10 @@
         <v>3</v>
       </c>
       <c r="AP40" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="AQ40" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="AR40" s="1">
         <v>45439.442256944443</v>
@@ -7041,10 +7041,10 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>106</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>198</v>
       </c>
       <c r="C41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -7165,10 +7165,10 @@
         <v>4</v>
       </c>
       <c r="AP41" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="AQ41" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="AR41" s="1">
         <v>45439.441805555558</v>
@@ -7176,10 +7176,10 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="C42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -7300,10 +7300,10 @@
         <v>4</v>
       </c>
       <c r="AP42" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="AQ42" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="AR42" s="1">
         <v>45439.442997685182</v>
@@ -7311,10 +7311,10 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>109</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="C43" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -7435,10 +7435,10 @@
         <v>4</v>
       </c>
       <c r="AP43" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ43" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AR43" s="1">
         <v>45439.443622685183</v>
@@ -7446,10 +7446,10 @@
     </row>
     <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="C44" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -7570,10 +7570,10 @@
         <v>4</v>
       </c>
       <c r="AP44" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ44" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AR44" s="1">
         <v>45439.445324074077</v>
@@ -7581,10 +7581,10 @@
     </row>
     <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>112</v>
+        <v>303</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="C45" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -7705,10 +7705,10 @@
         <v>4</v>
       </c>
       <c r="AP45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR45" s="1">
         <v>45439.444039351853</v>
@@ -7716,10 +7716,10 @@
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>115</v>
+        <v>304</v>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
+        <v>203</v>
       </c>
       <c r="C46" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -7840,10 +7840,10 @@
         <v>4</v>
       </c>
       <c r="AP46" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="AQ46" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR46" s="1">
         <v>45439.445219907408</v>
@@ -7851,10 +7851,10 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>118</v>
+        <v>305</v>
       </c>
       <c r="B47" t="s">
-        <v>312</v>
+        <v>204</v>
       </c>
       <c r="C47" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -7975,10 +7975,10 @@
         <v>4</v>
       </c>
       <c r="AP47" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="AQ47" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="AR47" s="1">
         <v>45439.445729166669</v>
@@ -7986,10 +7986,10 @@
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>120</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="C48" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -8110,10 +8110,10 @@
         <v>3</v>
       </c>
       <c r="AP48" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="AQ48" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AR48" s="1">
         <v>45439.447152777779</v>
@@ -8121,10 +8121,10 @@
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="B49" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="C49" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -8245,10 +8245,10 @@
         <v>4</v>
       </c>
       <c r="AP49" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ49" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR49" s="1">
         <v>45439.446655092594</v>
@@ -8256,10 +8256,10 @@
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s">
-        <v>315</v>
+        <v>207</v>
       </c>
       <c r="C50" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -8380,10 +8380,10 @@
         <v>1</v>
       </c>
       <c r="AP50" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="AQ50" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR50" s="1">
         <v>45439.448587962965</v>
@@ -8391,10 +8391,10 @@
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>126</v>
+        <v>309</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="C51" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -8515,10 +8515,10 @@
         <v>3</v>
       </c>
       <c r="AP51" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="AQ51" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="AR51" s="1">
         <v>45439.450983796298</v>
@@ -8526,10 +8526,10 @@
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>209</v>
       </c>
       <c r="C52" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -8650,10 +8650,10 @@
         <v>4</v>
       </c>
       <c r="AP52" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ52" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AR52" s="1">
         <v>45439.451655092591</v>
@@ -8661,7 +8661,7 @@
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="C53" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -8782,10 +8782,10 @@
         <v>4</v>
       </c>
       <c r="AP53" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="AQ53" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="AR53" s="1">
         <v>45439.458564814813</v>
@@ -8793,10 +8793,10 @@
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>133</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="C54" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -8917,10 +8917,10 @@
         <v>4</v>
       </c>
       <c r="AP54" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="AQ54" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AR54" s="1">
         <v>45439.457673611112</v>
@@ -8928,10 +8928,10 @@
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
       <c r="B55" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="C55" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -9052,10 +9052,10 @@
         <v>1</v>
       </c>
       <c r="AP55" t="s">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="AQ55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR55" s="1">
         <v>45439.458182870374</v>
@@ -9063,10 +9063,10 @@
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="C56" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -9187,10 +9187,10 @@
         <v>3</v>
       </c>
       <c r="AP56" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ56" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AR56" s="1">
         <v>45439.458726851852</v>
@@ -9198,10 +9198,10 @@
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>141</v>
+        <v>315</v>
       </c>
       <c r="B57" t="s">
-        <v>321</v>
+        <v>213</v>
       </c>
       <c r="C57" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -9322,10 +9322,10 @@
         <v>3</v>
       </c>
       <c r="AP57" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AQ57" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="AR57" s="1">
         <v>45439.464467592596</v>
@@ -9333,10 +9333,10 @@
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s">
-        <v>322</v>
+        <v>214</v>
       </c>
       <c r="C58" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -9457,10 +9457,10 @@
         <v>4</v>
       </c>
       <c r="AP58" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AQ58" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="AR58" s="1">
         <v>45439.460532407407</v>
@@ -9468,10 +9468,10 @@
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>144</v>
+        <v>317</v>
       </c>
       <c r="B59" t="s">
-        <v>323</v>
+        <v>215</v>
       </c>
       <c r="C59" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -9592,10 +9592,10 @@
         <v>2</v>
       </c>
       <c r="AP59" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="AQ59" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="AR59" s="1">
         <v>45439.460868055554</v>
@@ -9603,10 +9603,10 @@
     </row>
     <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>146</v>
+        <v>318</v>
       </c>
       <c r="B60" t="s">
-        <v>324</v>
+        <v>216</v>
       </c>
       <c r="C60" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -9727,10 +9727,10 @@
         <v>4</v>
       </c>
       <c r="AP60" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ60" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR60" s="1">
         <v>45439.466458333336</v>
@@ -9738,10 +9738,10 @@
     </row>
     <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>149</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c r="C61" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -9862,10 +9862,10 @@
         <v>4</v>
       </c>
       <c r="AP61" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="AQ61" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="AR61" s="1">
         <v>45439.468136574076</v>
@@ -9873,10 +9873,10 @@
     </row>
     <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>150</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="C62" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -9997,10 +9997,10 @@
         <v>5</v>
       </c>
       <c r="AP62" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ62" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="AR62" s="1">
         <v>45439.471863425926</v>
@@ -10008,10 +10008,10 @@
     </row>
     <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="B63" t="s">
-        <v>327</v>
+        <v>219</v>
       </c>
       <c r="C63" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -10132,10 +10132,10 @@
         <v>3</v>
       </c>
       <c r="AP63" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="AQ63" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="AR63" s="1">
         <v>45439.475069444445</v>
@@ -10143,10 +10143,10 @@
     </row>
     <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>156</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>220</v>
       </c>
       <c r="C64" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -10267,10 +10267,10 @@
         <v>4</v>
       </c>
       <c r="AP64" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ64" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR64" s="1">
         <v>45439.477187500001</v>
@@ -10278,10 +10278,10 @@
     </row>
     <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
-        <v>329</v>
+        <v>221</v>
       </c>
       <c r="C65" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -10402,10 +10402,10 @@
         <v>3</v>
       </c>
       <c r="AP65" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="AQ65" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="AR65" s="1">
         <v>45439.478101851855</v>
@@ -10413,10 +10413,10 @@
     </row>
     <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>158</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
-        <v>330</v>
+        <v>222</v>
       </c>
       <c r="C66" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -10537,10 +10537,10 @@
         <v>2</v>
       </c>
       <c r="AP66" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="AQ66" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="AR66" s="1">
         <v>45439.502210648148</v>
@@ -10548,10 +10548,10 @@
     </row>
     <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
-        <v>331</v>
+        <v>223</v>
       </c>
       <c r="C67" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -10672,10 +10672,10 @@
         <v>2</v>
       </c>
       <c r="AP67" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ67" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR67" s="1">
         <v>45439.480671296296</v>
@@ -10683,10 +10683,10 @@
     </row>
     <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>164</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
-        <v>332</v>
+        <v>224</v>
       </c>
       <c r="C68" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -10807,10 +10807,10 @@
         <v>4</v>
       </c>
       <c r="AP68" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ68" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AR68" s="1">
         <v>45439.484212962961</v>
@@ -10818,7 +10818,7 @@
     </row>
     <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>167</v>
+        <v>327</v>
       </c>
       <c r="C69" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -10939,10 +10939,10 @@
         <v>2</v>
       </c>
       <c r="AP69" t="s">
-        <v>159</v>
+        <v>94</v>
       </c>
       <c r="AQ69" t="s">
-        <v>160</v>
+        <v>95</v>
       </c>
       <c r="AR69" s="1">
         <v>45439.48945601852</v>
@@ -10950,10 +10950,10 @@
     </row>
     <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="C70" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -11074,10 +11074,10 @@
         <v>3</v>
       </c>
       <c r="AP70" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="AQ70" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="AR70" s="1">
         <v>45439.488564814812</v>
@@ -11085,10 +11085,10 @@
     </row>
     <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
       <c r="B71" t="s">
-        <v>334</v>
+        <v>226</v>
       </c>
       <c r="C71" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -11209,10 +11209,10 @@
         <v>4</v>
       </c>
       <c r="AP71" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="AQ71" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="AR71" s="1">
         <v>45439.489560185182</v>
@@ -11220,10 +11220,10 @@
     </row>
     <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>174</v>
+        <v>330</v>
       </c>
       <c r="B72" t="s">
-        <v>335</v>
+        <v>227</v>
       </c>
       <c r="C72" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -11344,10 +11344,10 @@
         <v>5</v>
       </c>
       <c r="AP72" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ72" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="AR72" s="1">
         <v>45439.491331018522</v>
@@ -11355,10 +11355,10 @@
     </row>
     <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="B73" t="s">
-        <v>336</v>
+        <v>228</v>
       </c>
       <c r="C73" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -11479,10 +11479,10 @@
         <v>3</v>
       </c>
       <c r="AP73" t="s">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="AQ73" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="AR73" s="1">
         <v>45439.517268518517</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="C74" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -11611,10 +11611,10 @@
         <v>4</v>
       </c>
       <c r="AP74" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ74" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="AR74" s="1">
         <v>45441.482465277775</v>
@@ -11622,7 +11622,7 @@
     </row>
     <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
       <c r="C75" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -11743,10 +11743,10 @@
         <v>4</v>
       </c>
       <c r="AP75" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="AQ75" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="AR75" s="1">
         <v>45439.505393518521</v>
@@ -11754,10 +11754,10 @@
     </row>
     <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>337</v>
+        <v>229</v>
       </c>
       <c r="C76" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -11878,10 +11878,10 @@
         <v>5</v>
       </c>
       <c r="AP76" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ76" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR76" s="1">
         <v>45439.510358796295</v>
@@ -11889,10 +11889,10 @@
     </row>
     <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="B77" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="C77" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -12013,10 +12013,10 @@
         <v>4</v>
       </c>
       <c r="AP77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ77" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR77" s="1">
         <v>45439.517928240741</v>
@@ -12024,7 +12024,7 @@
     </row>
     <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>183</v>
+        <v>336</v>
       </c>
       <c r="C78" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -12145,10 +12145,10 @@
         <v>2</v>
       </c>
       <c r="AP78" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="AQ78" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="AR78" s="1">
         <v>45439.523252314815</v>
@@ -12156,10 +12156,10 @@
     </row>
     <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>186</v>
+        <v>337</v>
       </c>
       <c r="B79" t="s">
-        <v>339</v>
+        <v>231</v>
       </c>
       <c r="C79" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -12280,10 +12280,10 @@
         <v>4</v>
       </c>
       <c r="AP79" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ79" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="AR79" s="1">
         <v>45439.528148148151</v>
@@ -12291,10 +12291,10 @@
     </row>
     <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>189</v>
+        <v>338</v>
       </c>
       <c r="B80" t="s">
-        <v>340</v>
+        <v>232</v>
       </c>
       <c r="C80" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -12415,10 +12415,10 @@
         <v>4</v>
       </c>
       <c r="AP80" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ80" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AR80" s="1">
         <v>45439.582939814813</v>
@@ -12426,10 +12426,10 @@
     </row>
     <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>190</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="C81" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -12550,10 +12550,10 @@
         <v>4</v>
       </c>
       <c r="AP81" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="AQ81" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="AR81" s="1">
         <v>45439.605567129627</v>
@@ -12561,7 +12561,7 @@
     </row>
     <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>192</v>
+        <v>340</v>
       </c>
       <c r="C82" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -12682,10 +12682,10 @@
         <v>3</v>
       </c>
       <c r="AP82" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="AQ82" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="AR82" s="1">
         <v>45439.605451388888</v>
@@ -12693,10 +12693,10 @@
     </row>
     <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>193</v>
+        <v>341</v>
       </c>
       <c r="B83" t="s">
-        <v>342</v>
+        <v>234</v>
       </c>
       <c r="C83" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -12817,10 +12817,10 @@
         <v>4</v>
       </c>
       <c r="AP83" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AQ83" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AR83" s="1">
         <v>45439.614340277774</v>
@@ -12828,10 +12828,10 @@
     </row>
     <row r="84" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="B84" t="s">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="C84" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -12952,10 +12952,10 @@
         <v>4</v>
       </c>
       <c r="AP84" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="AQ84" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AR84" s="1">
         <v>45439.628113425926</v>
@@ -12963,10 +12963,10 @@
     </row>
     <row r="85" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>195</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>344</v>
+        <v>236</v>
       </c>
       <c r="C85" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -13087,10 +13087,10 @@
         <v>1</v>
       </c>
       <c r="AP85" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ85" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR85" s="1">
         <v>45439.638993055552</v>
@@ -13098,10 +13098,10 @@
     </row>
     <row r="86" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>237</v>
       </c>
       <c r="C86" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -13222,10 +13222,10 @@
         <v>4</v>
       </c>
       <c r="AP86" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ86" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR86" s="1">
         <v>45439.641539351855</v>
@@ -13233,10 +13233,10 @@
     </row>
     <row r="87" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="B87" t="s">
-        <v>346</v>
+        <v>238</v>
       </c>
       <c r="C87" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -13357,10 +13357,10 @@
         <v>4</v>
       </c>
       <c r="AP87" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ87" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AR87" s="1">
         <v>45439.661400462966</v>
@@ -13368,10 +13368,10 @@
     </row>
     <row r="88" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>200</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="C88" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -13492,10 +13492,10 @@
         <v>3</v>
       </c>
       <c r="AP88" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="AQ88" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="AR88" s="1">
         <v>45439.678715277776</v>
@@ -13503,10 +13503,10 @@
     </row>
     <row r="89" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>203</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="C89" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -13627,10 +13627,10 @@
         <v>4</v>
       </c>
       <c r="AP89" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AQ89" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AR89" s="1">
         <v>45439.685717592591</v>
@@ -13638,10 +13638,10 @@
     </row>
     <row r="90" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>206</v>
+        <v>348</v>
       </c>
       <c r="B90" t="s">
-        <v>349</v>
+        <v>241</v>
       </c>
       <c r="C90" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -13762,10 +13762,10 @@
         <v>4</v>
       </c>
       <c r="AP90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AQ90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AR90" s="1">
         <v>45439.693541666667</v>
@@ -13773,10 +13773,10 @@
     </row>
     <row r="91" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>208</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="C91" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -13897,10 +13897,10 @@
         <v>4</v>
       </c>
       <c r="AP91" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="AQ91" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="AR91" s="1">
         <v>45439.771284722221</v>
@@ -13908,10 +13908,10 @@
     </row>
     <row r="92" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="B92" t="s">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="C92" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -14032,10 +14032,10 @@
         <v>3</v>
       </c>
       <c r="AP92" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="AQ92" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="AR92" s="1">
         <v>45439.850821759261</v>
@@ -14043,10 +14043,10 @@
     </row>
     <row r="93" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>214</v>
+        <v>351</v>
       </c>
       <c r="B93" t="s">
-        <v>352</v>
+        <v>244</v>
       </c>
       <c r="C93" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -14167,10 +14167,10 @@
         <v>5</v>
       </c>
       <c r="AP93" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="AQ93" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR93" s="1">
         <v>45439.860023148147</v>
@@ -14178,10 +14178,10 @@
     </row>
     <row r="94" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>216</v>
+        <v>352</v>
       </c>
       <c r="B94" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="C94" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -14302,10 +14302,10 @@
         <v>1</v>
       </c>
       <c r="AP94" t="s">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="AQ94" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="AR94" s="1">
         <v>45439.876793981479</v>
@@ -14313,10 +14313,10 @@
     </row>
     <row r="95" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="B95" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="C95" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -14437,10 +14437,10 @@
         <v>3</v>
       </c>
       <c r="AP95" t="s">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="AQ95" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="AR95" s="1">
         <v>45439.914976851855</v>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="96" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>220</v>
+        <v>354</v>
       </c>
       <c r="C96" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -14569,21 +14569,21 @@
         <v>4</v>
       </c>
       <c r="AP96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ96" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="AR96" s="1">
         <v>45439.958356481482</v>
       </c>
     </row>
-    <row r="97" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>221</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="C97" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -14704,21 +14704,21 @@
         <v>3</v>
       </c>
       <c r="AP97" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="AQ97" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="AR97" s="1">
         <v>45440.019108796296</v>
       </c>
     </row>
-    <row r="98" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="B98" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="C98" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -14839,21 +14839,21 @@
         <v>2</v>
       </c>
       <c r="AP98" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ98" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AR98" s="1">
         <v>45440.441099537034</v>
       </c>
     </row>
-    <row r="99" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="C99" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -14974,21 +14974,21 @@
         <v>4</v>
       </c>
       <c r="AP99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR99" s="1">
         <v>45440.705034722225</v>
       </c>
     </row>
-    <row r="100" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="B100" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="C100" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -15109,21 +15109,21 @@
         <v>4</v>
       </c>
       <c r="AP100" t="s">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="AQ100" t="s">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="AR100" s="1">
         <v>45440.726331018515</v>
       </c>
     </row>
-    <row r="101" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="B101" t="s">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="C101" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -15244,21 +15244,21 @@
         <v>3</v>
       </c>
       <c r="AP101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR101" s="1">
         <v>45440.975636574076</v>
       </c>
     </row>
-    <row r="102" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="B102" t="s">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="C102" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -15379,21 +15379,21 @@
         <v>4</v>
       </c>
       <c r="AP102" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="AQ102" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="AR102" s="1">
         <v>45441.027592592596</v>
       </c>
     </row>
-    <row r="103" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>236</v>
+        <v>361</v>
       </c>
       <c r="B103" t="s">
-        <v>361</v>
+        <v>253</v>
       </c>
       <c r="C103" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -15514,21 +15514,21 @@
         <v>4</v>
       </c>
       <c r="AP103" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ103" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR103" s="1">
         <v>45441.409155092595</v>
       </c>
     </row>
-    <row r="104" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c r="B104" t="s">
-        <v>362</v>
+        <v>254</v>
       </c>
       <c r="C104" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -15649,21 +15649,21 @@
         <v>4</v>
       </c>
       <c r="AP104" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="AQ104" t="s">
-        <v>230</v>
+        <v>131</v>
       </c>
       <c r="AR104" s="1">
         <v>45441.703506944446</v>
       </c>
     </row>
-    <row r="105" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
       <c r="B105" t="s">
-        <v>363</v>
+        <v>255</v>
       </c>
       <c r="C105" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -15784,21 +15784,21 @@
         <v>5</v>
       </c>
       <c r="AP105" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="AQ105" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="AR105" s="1">
         <v>45441.746215277781</v>
       </c>
     </row>
-    <row r="106" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
       <c r="B106" t="s">
-        <v>364</v>
+        <v>256</v>
       </c>
       <c r="C106" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -15919,21 +15919,21 @@
         <v>4</v>
       </c>
       <c r="AP106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ106" t="s">
-        <v>235</v>
+        <v>134</v>
       </c>
       <c r="AR106" s="1">
         <v>45441.844027777777</v>
       </c>
     </row>
-    <row r="107" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="B107" t="s">
-        <v>365</v>
+        <v>257</v>
       </c>
       <c r="C107" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -16054,21 +16054,21 @@
         <v>4</v>
       </c>
       <c r="AP107" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ107" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AR107" s="1">
         <v>45441.919270833336</v>
       </c>
     </row>
-    <row r="108" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="B108" t="s">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="C108" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -16189,18 +16189,18 @@
         <v>3</v>
       </c>
       <c r="AP108" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="AQ108" t="s">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="AR108" s="1">
         <v>45441.951157407406</v>
       </c>
     </row>
-    <row r="109" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="C109" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -16321,21 +16321,21 @@
         <v>3</v>
       </c>
       <c r="AP109" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="AQ109" t="s">
-        <v>241</v>
+        <v>137</v>
       </c>
       <c r="AR109" s="1">
         <v>45443.568113425928</v>
       </c>
     </row>
-    <row r="110" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>246</v>
+        <v>368</v>
       </c>
       <c r="B110" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="C110" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
@@ -16456,3861 +16456,3861 @@
         <v>3</v>
       </c>
       <c r="AP110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR110" s="1">
         <v>45445.702118055553</v>
       </c>
     </row>
-    <row r="111" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="AT111" t="str">
+        <f t="shared" ref="AT111:AT126" si="0">LEFT(D111,1)</f>
+        <v/>
+      </c>
       <c r="AU111" t="str">
-        <f t="shared" ref="AU111:AU126" si="0">LEFT(D111,1)</f>
+        <f t="shared" ref="AU111:AU126" si="1">LEFT(E111,1)</f>
         <v/>
       </c>
       <c r="AV111" t="str">
-        <f t="shared" ref="AV111:AV126" si="1">LEFT(E111,1)</f>
+        <f t="shared" ref="AV111:AV126" si="2">LEFT(F111,1)</f>
         <v/>
       </c>
       <c r="AW111" t="str">
-        <f t="shared" ref="AW111:AW126" si="2">LEFT(F111,1)</f>
+        <f t="shared" ref="AW111:AW126" si="3">LEFT(G111,1)</f>
         <v/>
       </c>
       <c r="AX111" t="str">
-        <f t="shared" ref="AX111:AX126" si="3">LEFT(G111,1)</f>
+        <f t="shared" ref="AX111:AX126" si="4">LEFT(H111,1)</f>
         <v/>
       </c>
       <c r="AY111" t="str">
-        <f t="shared" ref="AY111:AY126" si="4">LEFT(H111,1)</f>
+        <f t="shared" ref="AY111:AY126" si="5">LEFT(I111,1)</f>
         <v/>
       </c>
       <c r="AZ111" t="str">
-        <f t="shared" ref="AZ111:AZ126" si="5">LEFT(I111,1)</f>
+        <f t="shared" ref="AZ111:AZ126" si="6">LEFT(J111,1)</f>
         <v/>
       </c>
       <c r="BA111" t="str">
-        <f t="shared" ref="BA111:BA126" si="6">LEFT(J111,1)</f>
+        <f t="shared" ref="BA111:BA126" si="7">LEFT(K111,1)</f>
         <v/>
       </c>
       <c r="BB111" t="str">
-        <f t="shared" ref="BB111:BB126" si="7">LEFT(K111,1)</f>
+        <f t="shared" ref="BB111:BB126" si="8">LEFT(L111,1)</f>
         <v/>
       </c>
       <c r="BC111" t="str">
-        <f t="shared" ref="BC111:BC126" si="8">LEFT(L111,1)</f>
+        <f t="shared" ref="BC111:BC126" si="9">LEFT(M111,1)</f>
         <v/>
       </c>
       <c r="BD111" t="str">
-        <f t="shared" ref="BD111:BD126" si="9">LEFT(M111,1)</f>
+        <f t="shared" ref="BD111:BD126" si="10">LEFT(N111,1)</f>
         <v/>
       </c>
       <c r="BE111" t="str">
-        <f t="shared" ref="BE111:BE126" si="10">LEFT(N111,1)</f>
+        <f t="shared" ref="BE111:BE126" si="11">LEFT(O111,1)</f>
         <v/>
       </c>
       <c r="BF111" t="str">
-        <f t="shared" ref="BF111:BF126" si="11">LEFT(O111,1)</f>
+        <f t="shared" ref="BF111:BF126" si="12">LEFT(P111,1)</f>
         <v/>
       </c>
       <c r="BG111" t="str">
-        <f t="shared" ref="BG111:BG126" si="12">LEFT(P111,1)</f>
+        <f t="shared" ref="BG111:BG126" si="13">LEFT(Q111,1)</f>
         <v/>
       </c>
       <c r="BH111" t="str">
-        <f t="shared" ref="BH111:BH126" si="13">LEFT(Q111,1)</f>
+        <f t="shared" ref="BH111:BH126" si="14">LEFT(R111,1)</f>
         <v/>
       </c>
       <c r="BI111" t="str">
-        <f t="shared" ref="BI111:BI126" si="14">LEFT(R111,1)</f>
+        <f t="shared" ref="BI111:BI126" si="15">LEFT(S111,1)</f>
         <v/>
       </c>
       <c r="BJ111" t="str">
-        <f t="shared" ref="BJ111:BJ126" si="15">LEFT(S111,1)</f>
+        <f t="shared" ref="BJ111:BJ126" si="16">LEFT(T111,1)</f>
         <v/>
       </c>
       <c r="BK111" t="str">
-        <f t="shared" ref="BK111:BK126" si="16">LEFT(T111,1)</f>
+        <f t="shared" ref="BK111:BK126" si="17">LEFT(U111,1)</f>
         <v/>
       </c>
       <c r="BL111" t="str">
-        <f t="shared" ref="BL111:BL126" si="17">LEFT(U111,1)</f>
+        <f t="shared" ref="BL111:BL126" si="18">LEFT(V111,1)</f>
         <v/>
       </c>
       <c r="BM111" t="str">
-        <f t="shared" ref="BM111:BM126" si="18">LEFT(V111,1)</f>
+        <f t="shared" ref="BM111:BM126" si="19">LEFT(W111,1)</f>
         <v/>
       </c>
       <c r="BN111" t="str">
-        <f t="shared" ref="BN111:BN126" si="19">LEFT(W111,1)</f>
+        <f t="shared" ref="BN111:BN126" si="20">LEFT(X111,1)</f>
         <v/>
       </c>
       <c r="BO111" t="str">
-        <f t="shared" ref="BO111:BO126" si="20">LEFT(X111,1)</f>
+        <f t="shared" ref="BO111:BO126" si="21">LEFT(Y111,1)</f>
         <v/>
       </c>
       <c r="BP111" t="str">
-        <f t="shared" ref="BP111:BP126" si="21">LEFT(Y111,1)</f>
+        <f t="shared" ref="BP111:BP126" si="22">LEFT(Z111,1)</f>
         <v/>
       </c>
       <c r="BQ111" t="str">
-        <f t="shared" ref="BQ111:BQ126" si="22">LEFT(Z111,1)</f>
+        <f t="shared" ref="BQ111:BQ126" si="23">LEFT(AA111,1)</f>
         <v/>
       </c>
       <c r="BR111" t="str">
-        <f t="shared" ref="BR111:BR126" si="23">LEFT(AA111,1)</f>
+        <f t="shared" ref="BR111:BR126" si="24">LEFT(AB111,1)</f>
         <v/>
       </c>
       <c r="BS111" t="str">
-        <f t="shared" ref="BS111:BS126" si="24">LEFT(AB111,1)</f>
+        <f t="shared" ref="BS111:BS126" si="25">LEFT(AC111,1)</f>
         <v/>
       </c>
       <c r="BT111" t="str">
-        <f t="shared" ref="BT111:BT126" si="25">LEFT(AC111,1)</f>
+        <f t="shared" ref="BT111:BT126" si="26">LEFT(AD111,1)</f>
         <v/>
       </c>
       <c r="BU111" t="str">
-        <f t="shared" ref="BU111:BU126" si="26">LEFT(AD111,1)</f>
+        <f t="shared" ref="BU111:BU126" si="27">LEFT(AE111,1)</f>
         <v/>
       </c>
       <c r="BV111" t="str">
-        <f t="shared" ref="BV111:BV126" si="27">LEFT(AE111,1)</f>
+        <f t="shared" ref="BV111:BV126" si="28">LEFT(AF111,1)</f>
         <v/>
       </c>
       <c r="BW111" t="str">
-        <f t="shared" ref="BW111:BW126" si="28">LEFT(AF111,1)</f>
+        <f t="shared" ref="BW111:BW126" si="29">LEFT(AG111,1)</f>
         <v/>
       </c>
       <c r="BX111" t="str">
-        <f t="shared" ref="BX111:BX126" si="29">LEFT(AG111,1)</f>
+        <f t="shared" ref="BX111:BX126" si="30">LEFT(AH111,1)</f>
         <v/>
       </c>
       <c r="BY111" t="str">
-        <f t="shared" ref="BY111:BY126" si="30">LEFT(AH111,1)</f>
+        <f t="shared" ref="BY111:BY126" si="31">LEFT(AI111,1)</f>
         <v/>
       </c>
       <c r="BZ111" t="str">
-        <f t="shared" ref="BZ111:BZ126" si="31">LEFT(AI111,1)</f>
+        <f t="shared" ref="BZ111:BZ126" si="32">LEFT(AJ111,1)</f>
         <v/>
       </c>
       <c r="CA111" t="str">
-        <f t="shared" ref="CA111:CA126" si="32">LEFT(AJ111,1)</f>
+        <f t="shared" ref="CA111:CA126" si="33">LEFT(AK111,1)</f>
         <v/>
       </c>
       <c r="CB111" t="str">
-        <f t="shared" ref="CB111:CB126" si="33">LEFT(AK111,1)</f>
+        <f t="shared" ref="CB111:CB126" si="34">LEFT(AL111,1)</f>
         <v/>
       </c>
       <c r="CC111" t="str">
-        <f t="shared" ref="CC111:CC126" si="34">LEFT(AL111,1)</f>
+        <f t="shared" ref="CC111:CC126" si="35">LEFT(AM111,1)</f>
         <v/>
       </c>
       <c r="CD111" t="str">
-        <f t="shared" ref="CD111:CD126" si="35">LEFT(AM111,1)</f>
+        <f t="shared" ref="CD111:CD126" si="36">LEFT(AN111,1)</f>
         <v/>
       </c>
       <c r="CE111" t="str">
-        <f t="shared" ref="CE111:CE126" si="36">LEFT(AN111,1)</f>
-        <v/>
-      </c>
-      <c r="CF111" t="str">
-        <f t="shared" ref="CF111:CF126" si="37">LEFT(AO111,1)</f>
+        <f t="shared" ref="CE111:CE126" si="37">LEFT(AO111,1)</f>
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="AT112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="AU112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AV112" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="AW112" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="AX112" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AY112" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="AZ112" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="BA112" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="BB112" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="BC112" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="BD112" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="BE112" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="BF112" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="BG112" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="BH112" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="BI112" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BJ112" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="BK112" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="BL112" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="BM112" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="BN112" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="BO112" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="BP112" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="BQ112" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="BR112" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="BS112" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="BT112" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="BU112" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="BV112" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="BW112" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="BX112" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="BY112" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="BZ112" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="CA112" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="CB112" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="CC112" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="CD112" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="CE112" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT113" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV112" t="str">
+      <c r="AU113" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW112" t="str">
+      <c r="AV113" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX112" t="str">
+      <c r="AW113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY112" t="str">
+      <c r="AX113" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ112" t="str">
+      <c r="AY113" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA112" t="str">
+      <c r="AZ113" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB112" t="str">
+      <c r="BA113" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC112" t="str">
+      <c r="BB113" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD112" t="str">
+      <c r="BC113" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE112" t="str">
+      <c r="BD113" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF112" t="str">
+      <c r="BE113" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG112" t="str">
+      <c r="BF113" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH112" t="str">
+      <c r="BG113" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI112" t="str">
+      <c r="BH113" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ112" t="str">
+      <c r="BI113" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK112" t="str">
+      <c r="BJ113" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL112" t="str">
+      <c r="BK113" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM112" t="str">
+      <c r="BL113" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN112" t="str">
+      <c r="BM113" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO112" t="str">
+      <c r="BN113" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP112" t="str">
+      <c r="BO113" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ112" t="str">
+      <c r="BP113" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR112" t="str">
+      <c r="BQ113" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS112" t="str">
+      <c r="BR113" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT112" t="str">
+      <c r="BS113" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU112" t="str">
+      <c r="BT113" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV112" t="str">
+      <c r="BU113" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW112" t="str">
+      <c r="BV113" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX112" t="str">
+      <c r="BW113" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY112" t="str">
+      <c r="BX113" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ112" t="str">
+      <c r="BY113" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA112" t="str">
+      <c r="BZ113" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB112" t="str">
+      <c r="CA113" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC112" t="str">
+      <c r="CB113" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD112" t="str">
+      <c r="CC113" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE112" t="str">
+      <c r="CD113" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF112" t="str">
+      <c r="CE113" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU113" t="str">
+    <row r="114" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT114" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV113" t="str">
+      <c r="AU114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW113" t="str">
+      <c r="AV114" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX113" t="str">
+      <c r="AW114" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY113" t="str">
+      <c r="AX114" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ113" t="str">
+      <c r="AY114" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA113" t="str">
+      <c r="AZ114" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB113" t="str">
+      <c r="BA114" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC113" t="str">
+      <c r="BB114" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD113" t="str">
+      <c r="BC114" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE113" t="str">
+      <c r="BD114" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF113" t="str">
+      <c r="BE114" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG113" t="str">
+      <c r="BF114" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH113" t="str">
+      <c r="BG114" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI113" t="str">
+      <c r="BH114" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ113" t="str">
+      <c r="BI114" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK113" t="str">
+      <c r="BJ114" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL113" t="str">
+      <c r="BK114" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM113" t="str">
+      <c r="BL114" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN113" t="str">
+      <c r="BM114" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO113" t="str">
+      <c r="BN114" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP113" t="str">
+      <c r="BO114" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ113" t="str">
+      <c r="BP114" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR113" t="str">
+      <c r="BQ114" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS113" t="str">
+      <c r="BR114" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT113" t="str">
+      <c r="BS114" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU113" t="str">
+      <c r="BT114" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV113" t="str">
+      <c r="BU114" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW113" t="str">
+      <c r="BV114" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX113" t="str">
+      <c r="BW114" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY113" t="str">
+      <c r="BX114" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ113" t="str">
+      <c r="BY114" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA113" t="str">
+      <c r="BZ114" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB113" t="str">
+      <c r="CA114" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC113" t="str">
+      <c r="CB114" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD113" t="str">
+      <c r="CC114" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE113" t="str">
+      <c r="CD114" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF113" t="str">
+      <c r="CE114" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU114" t="str">
+    <row r="115" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT115" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV114" t="str">
+      <c r="AU115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW114" t="str">
+      <c r="AV115" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX114" t="str">
+      <c r="AW115" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY114" t="str">
+      <c r="AX115" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ114" t="str">
+      <c r="AY115" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA114" t="str">
+      <c r="AZ115" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB114" t="str">
+      <c r="BA115" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC114" t="str">
+      <c r="BB115" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD114" t="str">
+      <c r="BC115" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE114" t="str">
+      <c r="BD115" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF114" t="str">
+      <c r="BE115" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG114" t="str">
+      <c r="BF115" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH114" t="str">
+      <c r="BG115" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI114" t="str">
+      <c r="BH115" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ114" t="str">
+      <c r="BI115" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK114" t="str">
+      <c r="BJ115" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL114" t="str">
+      <c r="BK115" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM114" t="str">
+      <c r="BL115" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN114" t="str">
+      <c r="BM115" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO114" t="str">
+      <c r="BN115" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP114" t="str">
+      <c r="BO115" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ114" t="str">
+      <c r="BP115" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR114" t="str">
+      <c r="BQ115" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS114" t="str">
+      <c r="BR115" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT114" t="str">
+      <c r="BS115" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU114" t="str">
+      <c r="BT115" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV114" t="str">
+      <c r="BU115" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW114" t="str">
+      <c r="BV115" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX114" t="str">
+      <c r="BW115" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY114" t="str">
+      <c r="BX115" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ114" t="str">
+      <c r="BY115" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA114" t="str">
+      <c r="BZ115" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB114" t="str">
+      <c r="CA115" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC114" t="str">
+      <c r="CB115" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD114" t="str">
+      <c r="CC115" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE114" t="str">
+      <c r="CD115" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF114" t="str">
+      <c r="CE115" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU115" t="str">
+    <row r="116" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT116" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV115" t="str">
+      <c r="AU116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW115" t="str">
+      <c r="AV116" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX115" t="str">
+      <c r="AW116" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY115" t="str">
+      <c r="AX116" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ115" t="str">
+      <c r="AY116" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA115" t="str">
+      <c r="AZ116" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB115" t="str">
+      <c r="BA116" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC115" t="str">
+      <c r="BB116" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD115" t="str">
+      <c r="BC116" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE115" t="str">
+      <c r="BD116" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF115" t="str">
+      <c r="BE116" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG115" t="str">
+      <c r="BF116" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH115" t="str">
+      <c r="BG116" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI115" t="str">
+      <c r="BH116" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ115" t="str">
+      <c r="BI116" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK115" t="str">
+      <c r="BJ116" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL115" t="str">
+      <c r="BK116" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM115" t="str">
+      <c r="BL116" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN115" t="str">
+      <c r="BM116" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO115" t="str">
+      <c r="BN116" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP115" t="str">
+      <c r="BO116" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ115" t="str">
+      <c r="BP116" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR115" t="str">
+      <c r="BQ116" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS115" t="str">
+      <c r="BR116" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT115" t="str">
+      <c r="BS116" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU115" t="str">
+      <c r="BT116" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV115" t="str">
+      <c r="BU116" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW115" t="str">
+      <c r="BV116" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX115" t="str">
+      <c r="BW116" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY115" t="str">
+      <c r="BX116" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ115" t="str">
+      <c r="BY116" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA115" t="str">
+      <c r="BZ116" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB115" t="str">
+      <c r="CA116" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC115" t="str">
+      <c r="CB116" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD115" t="str">
+      <c r="CC116" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE115" t="str">
+      <c r="CD116" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF115" t="str">
+      <c r="CE116" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU116" t="str">
+    <row r="117" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT117" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV116" t="str">
+      <c r="AU117" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW116" t="str">
+      <c r="AV117" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX116" t="str">
+      <c r="AW117" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY116" t="str">
+      <c r="AX117" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ116" t="str">
+      <c r="AY117" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA116" t="str">
+      <c r="AZ117" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB116" t="str">
+      <c r="BA117" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC116" t="str">
+      <c r="BB117" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD116" t="str">
+      <c r="BC117" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE116" t="str">
+      <c r="BD117" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF116" t="str">
+      <c r="BE117" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG116" t="str">
+      <c r="BF117" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH116" t="str">
+      <c r="BG117" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI116" t="str">
+      <c r="BH117" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ116" t="str">
+      <c r="BI117" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK116" t="str">
+      <c r="BJ117" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL116" t="str">
+      <c r="BK117" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM116" t="str">
+      <c r="BL117" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN116" t="str">
+      <c r="BM117" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO116" t="str">
+      <c r="BN117" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP116" t="str">
+      <c r="BO117" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ116" t="str">
+      <c r="BP117" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR116" t="str">
+      <c r="BQ117" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS116" t="str">
+      <c r="BR117" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT116" t="str">
+      <c r="BS117" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU116" t="str">
+      <c r="BT117" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV116" t="str">
+      <c r="BU117" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW116" t="str">
+      <c r="BV117" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX116" t="str">
+      <c r="BW117" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY116" t="str">
+      <c r="BX117" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ116" t="str">
+      <c r="BY117" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA116" t="str">
+      <c r="BZ117" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB116" t="str">
+      <c r="CA117" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC116" t="str">
+      <c r="CB117" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD116" t="str">
+      <c r="CC117" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE116" t="str">
+      <c r="CD117" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF116" t="str">
+      <c r="CE117" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU117" t="str">
+    <row r="118" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT118" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV117" t="str">
+      <c r="AU118" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW117" t="str">
+      <c r="AV118" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX117" t="str">
+      <c r="AW118" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY117" t="str">
+      <c r="AX118" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ117" t="str">
+      <c r="AY118" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA117" t="str">
+      <c r="AZ118" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB117" t="str">
+      <c r="BA118" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC117" t="str">
+      <c r="BB118" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD117" t="str">
+      <c r="BC118" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE117" t="str">
+      <c r="BD118" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF117" t="str">
+      <c r="BE118" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG117" t="str">
+      <c r="BF118" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH117" t="str">
+      <c r="BG118" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI117" t="str">
+      <c r="BH118" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ117" t="str">
+      <c r="BI118" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK117" t="str">
+      <c r="BJ118" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL117" t="str">
+      <c r="BK118" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM117" t="str">
+      <c r="BL118" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN117" t="str">
+      <c r="BM118" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO117" t="str">
+      <c r="BN118" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP117" t="str">
+      <c r="BO118" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ117" t="str">
+      <c r="BP118" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR117" t="str">
+      <c r="BQ118" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS117" t="str">
+      <c r="BR118" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT117" t="str">
+      <c r="BS118" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU117" t="str">
+      <c r="BT118" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV117" t="str">
+      <c r="BU118" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW117" t="str">
+      <c r="BV118" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX117" t="str">
+      <c r="BW118" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY117" t="str">
+      <c r="BX118" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ117" t="str">
+      <c r="BY118" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA117" t="str">
+      <c r="BZ118" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB117" t="str">
+      <c r="CA118" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC117" t="str">
+      <c r="CB118" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD117" t="str">
+      <c r="CC118" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE117" t="str">
+      <c r="CD118" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF117" t="str">
+      <c r="CE118" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU118" t="str">
+    <row r="119" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT119" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV118" t="str">
+      <c r="AU119" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW118" t="str">
+      <c r="AV119" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX118" t="str">
+      <c r="AW119" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY118" t="str">
+      <c r="AX119" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ118" t="str">
+      <c r="AY119" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA118" t="str">
+      <c r="AZ119" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB118" t="str">
+      <c r="BA119" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC118" t="str">
+      <c r="BB119" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD118" t="str">
+      <c r="BC119" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE118" t="str">
+      <c r="BD119" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF118" t="str">
+      <c r="BE119" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG118" t="str">
+      <c r="BF119" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH118" t="str">
+      <c r="BG119" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI118" t="str">
+      <c r="BH119" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ118" t="str">
+      <c r="BI119" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK118" t="str">
+      <c r="BJ119" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL118" t="str">
+      <c r="BK119" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM118" t="str">
+      <c r="BL119" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN118" t="str">
+      <c r="BM119" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO118" t="str">
+      <c r="BN119" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP118" t="str">
+      <c r="BO119" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ118" t="str">
+      <c r="BP119" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR118" t="str">
+      <c r="BQ119" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS118" t="str">
+      <c r="BR119" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT118" t="str">
+      <c r="BS119" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU118" t="str">
+      <c r="BT119" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV118" t="str">
+      <c r="BU119" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW118" t="str">
+      <c r="BV119" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX118" t="str">
+      <c r="BW119" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY118" t="str">
+      <c r="BX119" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ118" t="str">
+      <c r="BY119" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA118" t="str">
+      <c r="BZ119" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB118" t="str">
+      <c r="CA119" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC118" t="str">
+      <c r="CB119" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD118" t="str">
+      <c r="CC119" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE118" t="str">
+      <c r="CD119" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF118" t="str">
+      <c r="CE119" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU119" t="str">
+    <row r="120" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT120" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV119" t="str">
+      <c r="AU120" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW119" t="str">
+      <c r="AV120" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX119" t="str">
+      <c r="AW120" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY119" t="str">
+      <c r="AX120" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ119" t="str">
+      <c r="AY120" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA119" t="str">
+      <c r="AZ120" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB119" t="str">
+      <c r="BA120" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC119" t="str">
+      <c r="BB120" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD119" t="str">
+      <c r="BC120" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE119" t="str">
+      <c r="BD120" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF119" t="str">
+      <c r="BE120" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG119" t="str">
+      <c r="BF120" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH119" t="str">
+      <c r="BG120" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI119" t="str">
+      <c r="BH120" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ119" t="str">
+      <c r="BI120" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK119" t="str">
+      <c r="BJ120" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL119" t="str">
+      <c r="BK120" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM119" t="str">
+      <c r="BL120" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN119" t="str">
+      <c r="BM120" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO119" t="str">
+      <c r="BN120" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP119" t="str">
+      <c r="BO120" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ119" t="str">
+      <c r="BP120" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR119" t="str">
+      <c r="BQ120" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS119" t="str">
+      <c r="BR120" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT119" t="str">
+      <c r="BS120" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU119" t="str">
+      <c r="BT120" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV119" t="str">
+      <c r="BU120" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW119" t="str">
+      <c r="BV120" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX119" t="str">
+      <c r="BW120" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY119" t="str">
+      <c r="BX120" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ119" t="str">
+      <c r="BY120" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA119" t="str">
+      <c r="BZ120" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB119" t="str">
+      <c r="CA120" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC119" t="str">
+      <c r="CB120" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD119" t="str">
+      <c r="CC120" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE119" t="str">
+      <c r="CD120" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF119" t="str">
+      <c r="CE120" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU120" t="str">
+    <row r="121" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT121" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV120" t="str">
+      <c r="AU121" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW120" t="str">
+      <c r="AV121" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX120" t="str">
+      <c r="AW121" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY120" t="str">
+      <c r="AX121" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ120" t="str">
+      <c r="AY121" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA120" t="str">
+      <c r="AZ121" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB120" t="str">
+      <c r="BA121" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC120" t="str">
+      <c r="BB121" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD120" t="str">
+      <c r="BC121" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE120" t="str">
+      <c r="BD121" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF120" t="str">
+      <c r="BE121" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG120" t="str">
+      <c r="BF121" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH120" t="str">
+      <c r="BG121" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI120" t="str">
+      <c r="BH121" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ120" t="str">
+      <c r="BI121" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK120" t="str">
+      <c r="BJ121" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL120" t="str">
+      <c r="BK121" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM120" t="str">
+      <c r="BL121" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN120" t="str">
+      <c r="BM121" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO120" t="str">
+      <c r="BN121" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP120" t="str">
+      <c r="BO121" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ120" t="str">
+      <c r="BP121" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR120" t="str">
+      <c r="BQ121" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS120" t="str">
+      <c r="BR121" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT120" t="str">
+      <c r="BS121" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU120" t="str">
+      <c r="BT121" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV120" t="str">
+      <c r="BU121" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW120" t="str">
+      <c r="BV121" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX120" t="str">
+      <c r="BW121" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY120" t="str">
+      <c r="BX121" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ120" t="str">
+      <c r="BY121" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA120" t="str">
+      <c r="BZ121" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB120" t="str">
+      <c r="CA121" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC120" t="str">
+      <c r="CB121" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD120" t="str">
+      <c r="CC121" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE120" t="str">
+      <c r="CD121" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF120" t="str">
+      <c r="CE121" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU121" t="str">
+    <row r="122" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT122" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV121" t="str">
+      <c r="AU122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW121" t="str">
+      <c r="AV122" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX121" t="str">
+      <c r="AW122" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY121" t="str">
+      <c r="AX122" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ121" t="str">
+      <c r="AY122" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA121" t="str">
+      <c r="AZ122" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB121" t="str">
+      <c r="BA122" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC121" t="str">
+      <c r="BB122" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD121" t="str">
+      <c r="BC122" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE121" t="str">
+      <c r="BD122" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF121" t="str">
+      <c r="BE122" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG121" t="str">
+      <c r="BF122" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH121" t="str">
+      <c r="BG122" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI121" t="str">
+      <c r="BH122" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ121" t="str">
+      <c r="BI122" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK121" t="str">
+      <c r="BJ122" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL121" t="str">
+      <c r="BK122" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM121" t="str">
+      <c r="BL122" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN121" t="str">
+      <c r="BM122" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO121" t="str">
+      <c r="BN122" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP121" t="str">
+      <c r="BO122" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ121" t="str">
+      <c r="BP122" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR121" t="str">
+      <c r="BQ122" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS121" t="str">
+      <c r="BR122" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT121" t="str">
+      <c r="BS122" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU121" t="str">
+      <c r="BT122" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV121" t="str">
+      <c r="BU122" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW121" t="str">
+      <c r="BV122" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX121" t="str">
+      <c r="BW122" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY121" t="str">
+      <c r="BX122" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ121" t="str">
+      <c r="BY122" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA121" t="str">
+      <c r="BZ122" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB121" t="str">
+      <c r="CA122" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC121" t="str">
+      <c r="CB122" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD121" t="str">
+      <c r="CC122" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE121" t="str">
+      <c r="CD122" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF121" t="str">
+      <c r="CE122" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU122" t="str">
+    <row r="123" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT123" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV122" t="str">
+      <c r="AU123" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW122" t="str">
+      <c r="AV123" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX122" t="str">
+      <c r="AW123" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY122" t="str">
+      <c r="AX123" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ122" t="str">
+      <c r="AY123" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA122" t="str">
+      <c r="AZ123" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB122" t="str">
+      <c r="BA123" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC122" t="str">
+      <c r="BB123" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD122" t="str">
+      <c r="BC123" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE122" t="str">
+      <c r="BD123" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF122" t="str">
+      <c r="BE123" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG122" t="str">
+      <c r="BF123" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH122" t="str">
+      <c r="BG123" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI122" t="str">
+      <c r="BH123" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ122" t="str">
+      <c r="BI123" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK122" t="str">
+      <c r="BJ123" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL122" t="str">
+      <c r="BK123" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM122" t="str">
+      <c r="BL123" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN122" t="str">
+      <c r="BM123" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO122" t="str">
+      <c r="BN123" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP122" t="str">
+      <c r="BO123" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ122" t="str">
+      <c r="BP123" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR122" t="str">
+      <c r="BQ123" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS122" t="str">
+      <c r="BR123" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT122" t="str">
+      <c r="BS123" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU122" t="str">
+      <c r="BT123" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV122" t="str">
+      <c r="BU123" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW122" t="str">
+      <c r="BV123" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX122" t="str">
+      <c r="BW123" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY122" t="str">
+      <c r="BX123" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ122" t="str">
+      <c r="BY123" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA122" t="str">
+      <c r="BZ123" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB122" t="str">
+      <c r="CA123" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC122" t="str">
+      <c r="CB123" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD122" t="str">
+      <c r="CC123" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE122" t="str">
+      <c r="CD123" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF122" t="str">
+      <c r="CE123" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU123" t="str">
+    <row r="124" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT124" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV123" t="str">
+      <c r="AU124" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW123" t="str">
+      <c r="AV124" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX123" t="str">
+      <c r="AW124" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY123" t="str">
+      <c r="AX124" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ123" t="str">
+      <c r="AY124" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA123" t="str">
+      <c r="AZ124" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB123" t="str">
+      <c r="BA124" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC123" t="str">
+      <c r="BB124" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD123" t="str">
+      <c r="BC124" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE123" t="str">
+      <c r="BD124" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF123" t="str">
+      <c r="BE124" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG123" t="str">
+      <c r="BF124" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH123" t="str">
+      <c r="BG124" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI123" t="str">
+      <c r="BH124" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ123" t="str">
+      <c r="BI124" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK123" t="str">
+      <c r="BJ124" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL123" t="str">
+      <c r="BK124" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM123" t="str">
+      <c r="BL124" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN123" t="str">
+      <c r="BM124" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO123" t="str">
+      <c r="BN124" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP123" t="str">
+      <c r="BO124" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ123" t="str">
+      <c r="BP124" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR123" t="str">
+      <c r="BQ124" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS123" t="str">
+      <c r="BR124" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT123" t="str">
+      <c r="BS124" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU123" t="str">
+      <c r="BT124" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV123" t="str">
+      <c r="BU124" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW123" t="str">
+      <c r="BV124" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX123" t="str">
+      <c r="BW124" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY123" t="str">
+      <c r="BX124" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ123" t="str">
+      <c r="BY124" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA123" t="str">
+      <c r="BZ124" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB123" t="str">
+      <c r="CA124" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC123" t="str">
+      <c r="CB124" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD123" t="str">
+      <c r="CC124" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE123" t="str">
+      <c r="CD124" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF123" t="str">
+      <c r="CE124" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU124" t="str">
+    <row r="125" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT125" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV124" t="str">
+      <c r="AU125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW124" t="str">
+      <c r="AV125" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX124" t="str">
+      <c r="AW125" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY124" t="str">
+      <c r="AX125" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ124" t="str">
+      <c r="AY125" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA124" t="str">
+      <c r="AZ125" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB124" t="str">
+      <c r="BA125" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC124" t="str">
+      <c r="BB125" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD124" t="str">
+      <c r="BC125" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE124" t="str">
+      <c r="BD125" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF124" t="str">
+      <c r="BE125" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG124" t="str">
+      <c r="BF125" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH124" t="str">
+      <c r="BG125" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI124" t="str">
+      <c r="BH125" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ124" t="str">
+      <c r="BI125" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK124" t="str">
+      <c r="BJ125" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL124" t="str">
+      <c r="BK125" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM124" t="str">
+      <c r="BL125" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN124" t="str">
+      <c r="BM125" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO124" t="str">
+      <c r="BN125" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP124" t="str">
+      <c r="BO125" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ124" t="str">
+      <c r="BP125" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR124" t="str">
+      <c r="BQ125" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS124" t="str">
+      <c r="BR125" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT124" t="str">
+      <c r="BS125" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU124" t="str">
+      <c r="BT125" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV124" t="str">
+      <c r="BU125" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW124" t="str">
+      <c r="BV125" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX124" t="str">
+      <c r="BW125" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY124" t="str">
+      <c r="BX125" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ124" t="str">
+      <c r="BY125" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA124" t="str">
+      <c r="BZ125" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB124" t="str">
+      <c r="CA125" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC124" t="str">
+      <c r="CB125" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD124" t="str">
+      <c r="CC125" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE124" t="str">
+      <c r="CD125" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF124" t="str">
+      <c r="CE125" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU125" t="str">
+    <row r="126" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT126" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AV125" t="str">
+      <c r="AU126" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AW125" t="str">
+      <c r="AV126" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="AX125" t="str">
+      <c r="AW126" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AY125" t="str">
+      <c r="AX126" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AZ125" t="str">
+      <c r="AY126" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="BA125" t="str">
+      <c r="AZ126" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="BB125" t="str">
+      <c r="BA126" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="BC125" t="str">
+      <c r="BB126" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="BD125" t="str">
+      <c r="BC126" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="BE125" t="str">
+      <c r="BD126" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="BF125" t="str">
+      <c r="BE126" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="BG125" t="str">
+      <c r="BF126" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="BH125" t="str">
+      <c r="BG126" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="BI125" t="str">
+      <c r="BH126" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
-      <c r="BJ125" t="str">
+      <c r="BI126" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="BK125" t="str">
+      <c r="BJ126" t="str">
         <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="BL125" t="str">
+      <c r="BK126" t="str">
         <f t="shared" si="17"/>
         <v/>
       </c>
-      <c r="BM125" t="str">
+      <c r="BL126" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="BN125" t="str">
+      <c r="BM126" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="BO125" t="str">
+      <c r="BN126" t="str">
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="BP125" t="str">
+      <c r="BO126" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="BQ125" t="str">
+      <c r="BP126" t="str">
         <f t="shared" si="22"/>
         <v/>
       </c>
-      <c r="BR125" t="str">
+      <c r="BQ126" t="str">
         <f t="shared" si="23"/>
         <v/>
       </c>
-      <c r="BS125" t="str">
+      <c r="BR126" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="BT125" t="str">
+      <c r="BS126" t="str">
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="BU125" t="str">
+      <c r="BT126" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="BV125" t="str">
+      <c r="BU126" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="BW125" t="str">
+      <c r="BV126" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="BX125" t="str">
+      <c r="BW126" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="BY125" t="str">
+      <c r="BX126" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="BZ125" t="str">
+      <c r="BY126" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="CA125" t="str">
+      <c r="BZ126" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="CB125" t="str">
+      <c r="CA126" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="CC125" t="str">
+      <c r="CB126" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="CD125" t="str">
+      <c r="CC126" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="CE125" t="str">
+      <c r="CD126" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="CF125" t="str">
+      <c r="CE126" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU126" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="AV126" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AW126" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AX126" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AY126" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AZ126" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="BA126" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="BB126" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="BC126" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="BD126" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="BE126" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="BF126" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="BG126" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="BH126" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="BI126" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="BJ126" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="BK126" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="BL126" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="BM126" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="BN126" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="BO126" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="BP126" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="BQ126" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="BR126" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="BS126" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="BT126" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="BU126" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="BV126" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="BW126" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="BX126" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="BY126" t="str">
-        <f t="shared" si="30"/>
-        <v/>
-      </c>
-      <c r="BZ126" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="CA126" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="CB126" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="CC126" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="CD126" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="CE126" t="str">
-        <f t="shared" si="36"/>
-        <v/>
-      </c>
-      <c r="CF126" t="str">
-        <f t="shared" si="37"/>
+    <row r="127" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT127" t="str">
+        <f t="shared" ref="AT127:AT135" si="38">LEFT(D127,1)</f>
+        <v/>
+      </c>
+      <c r="AU127" t="str">
+        <f t="shared" ref="AU127:AU135" si="39">LEFT(E127,1)</f>
+        <v/>
+      </c>
+      <c r="AV127" t="str">
+        <f t="shared" ref="AV127:AV135" si="40">LEFT(F127,1)</f>
+        <v/>
+      </c>
+      <c r="AW127" t="str">
+        <f t="shared" ref="AW127:AW135" si="41">LEFT(G127,1)</f>
+        <v/>
+      </c>
+      <c r="AX127" t="str">
+        <f t="shared" ref="AX127:AX135" si="42">LEFT(H127,1)</f>
+        <v/>
+      </c>
+      <c r="AY127" t="str">
+        <f t="shared" ref="AY127:AY135" si="43">LEFT(I127,1)</f>
+        <v/>
+      </c>
+      <c r="AZ127" t="str">
+        <f t="shared" ref="AZ127:AZ135" si="44">LEFT(J127,1)</f>
+        <v/>
+      </c>
+      <c r="BA127" t="str">
+        <f t="shared" ref="BA127:BA135" si="45">LEFT(K127,1)</f>
+        <v/>
+      </c>
+      <c r="BB127" t="str">
+        <f t="shared" ref="BB127:BB135" si="46">LEFT(L127,1)</f>
+        <v/>
+      </c>
+      <c r="BC127" t="str">
+        <f t="shared" ref="BC127:BC135" si="47">LEFT(M127,1)</f>
+        <v/>
+      </c>
+      <c r="BD127" t="str">
+        <f t="shared" ref="BD127:BD135" si="48">LEFT(N127,1)</f>
+        <v/>
+      </c>
+      <c r="BE127" t="str">
+        <f t="shared" ref="BE127:BE135" si="49">LEFT(O127,1)</f>
+        <v/>
+      </c>
+      <c r="BF127" t="str">
+        <f t="shared" ref="BF127:BF135" si="50">LEFT(P127,1)</f>
+        <v/>
+      </c>
+      <c r="BG127" t="str">
+        <f t="shared" ref="BG127:BG135" si="51">LEFT(Q127,1)</f>
+        <v/>
+      </c>
+      <c r="BH127" t="str">
+        <f t="shared" ref="BH127:BH135" si="52">LEFT(R127,1)</f>
+        <v/>
+      </c>
+      <c r="BI127" t="str">
+        <f t="shared" ref="BI127:BI135" si="53">LEFT(S127,1)</f>
+        <v/>
+      </c>
+      <c r="BJ127" t="str">
+        <f t="shared" ref="BJ127:BJ135" si="54">LEFT(T127,1)</f>
+        <v/>
+      </c>
+      <c r="BK127" t="str">
+        <f t="shared" ref="BK127:BK135" si="55">LEFT(U127,1)</f>
+        <v/>
+      </c>
+      <c r="BL127" t="str">
+        <f t="shared" ref="BL127:BL135" si="56">LEFT(V127,1)</f>
+        <v/>
+      </c>
+      <c r="BM127" t="str">
+        <f t="shared" ref="BM127:BM135" si="57">LEFT(W127,1)</f>
+        <v/>
+      </c>
+      <c r="BN127" t="str">
+        <f t="shared" ref="BN127:BN135" si="58">LEFT(X127,1)</f>
+        <v/>
+      </c>
+      <c r="BO127" t="str">
+        <f t="shared" ref="BO127:BO135" si="59">LEFT(Y127,1)</f>
+        <v/>
+      </c>
+      <c r="BP127" t="str">
+        <f t="shared" ref="BP127:BP135" si="60">LEFT(Z127,1)</f>
+        <v/>
+      </c>
+      <c r="BQ127" t="str">
+        <f t="shared" ref="BQ127:BQ135" si="61">LEFT(AA127,1)</f>
+        <v/>
+      </c>
+      <c r="BR127" t="str">
+        <f t="shared" ref="BR127:BR135" si="62">LEFT(AB127,1)</f>
+        <v/>
+      </c>
+      <c r="BS127" t="str">
+        <f t="shared" ref="BS127:BS135" si="63">LEFT(AC127,1)</f>
+        <v/>
+      </c>
+      <c r="BT127" t="str">
+        <f t="shared" ref="BT127:BT135" si="64">LEFT(AD127,1)</f>
+        <v/>
+      </c>
+      <c r="BU127" t="str">
+        <f t="shared" ref="BU127:BU135" si="65">LEFT(AE127,1)</f>
+        <v/>
+      </c>
+      <c r="BV127" t="str">
+        <f t="shared" ref="BV127:BV135" si="66">LEFT(AF127,1)</f>
+        <v/>
+      </c>
+      <c r="BW127" t="str">
+        <f t="shared" ref="BW127:BW135" si="67">LEFT(AG127,1)</f>
+        <v/>
+      </c>
+      <c r="BX127" t="str">
+        <f t="shared" ref="BX127:BX135" si="68">LEFT(AH127,1)</f>
+        <v/>
+      </c>
+      <c r="BY127" t="str">
+        <f t="shared" ref="BY127:BY135" si="69">LEFT(AI127,1)</f>
+        <v/>
+      </c>
+      <c r="BZ127" t="str">
+        <f t="shared" ref="BZ127:BZ135" si="70">LEFT(AJ127,1)</f>
+        <v/>
+      </c>
+      <c r="CA127" t="str">
+        <f t="shared" ref="CA127:CA135" si="71">LEFT(AK127,1)</f>
+        <v/>
+      </c>
+      <c r="CB127" t="str">
+        <f t="shared" ref="CB127:CB135" si="72">LEFT(AL127,1)</f>
+        <v/>
+      </c>
+      <c r="CC127" t="str">
+        <f t="shared" ref="CC127:CC135" si="73">LEFT(AM127,1)</f>
+        <v/>
+      </c>
+      <c r="CD127" t="str">
+        <f t="shared" ref="CD127:CD135" si="74">LEFT(AN127,1)</f>
+        <v/>
+      </c>
+      <c r="CE127" t="str">
+        <f t="shared" ref="CE127:CE135" si="75">LEFT(AO127,1)</f>
         <v/>
       </c>
     </row>
-    <row r="127" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU127" t="str">
-        <f t="shared" ref="AU127:AU135" si="38">LEFT(D127,1)</f>
-        <v/>
-      </c>
-      <c r="AV127" t="str">
-        <f t="shared" ref="AV127:AV135" si="39">LEFT(E127,1)</f>
-        <v/>
-      </c>
-      <c r="AW127" t="str">
-        <f t="shared" ref="AW127:AW135" si="40">LEFT(F127,1)</f>
-        <v/>
-      </c>
-      <c r="AX127" t="str">
-        <f t="shared" ref="AX127:AX135" si="41">LEFT(G127,1)</f>
-        <v/>
-      </c>
-      <c r="AY127" t="str">
-        <f t="shared" ref="AY127:AY135" si="42">LEFT(H127,1)</f>
-        <v/>
-      </c>
-      <c r="AZ127" t="str">
-        <f t="shared" ref="AZ127:AZ135" si="43">LEFT(I127,1)</f>
-        <v/>
-      </c>
-      <c r="BA127" t="str">
-        <f t="shared" ref="BA127:BA135" si="44">LEFT(J127,1)</f>
-        <v/>
-      </c>
-      <c r="BB127" t="str">
-        <f t="shared" ref="BB127:BB135" si="45">LEFT(K127,1)</f>
-        <v/>
-      </c>
-      <c r="BC127" t="str">
-        <f t="shared" ref="BC127:BC135" si="46">LEFT(L127,1)</f>
-        <v/>
-      </c>
-      <c r="BD127" t="str">
-        <f t="shared" ref="BD127:BD135" si="47">LEFT(M127,1)</f>
-        <v/>
-      </c>
-      <c r="BE127" t="str">
-        <f t="shared" ref="BE127:BE135" si="48">LEFT(N127,1)</f>
-        <v/>
-      </c>
-      <c r="BF127" t="str">
-        <f t="shared" ref="BF127:BF135" si="49">LEFT(O127,1)</f>
-        <v/>
-      </c>
-      <c r="BG127" t="str">
-        <f t="shared" ref="BG127:BG135" si="50">LEFT(P127,1)</f>
-        <v/>
-      </c>
-      <c r="BH127" t="str">
-        <f t="shared" ref="BH127:BH135" si="51">LEFT(Q127,1)</f>
-        <v/>
-      </c>
-      <c r="BI127" t="str">
-        <f t="shared" ref="BI127:BI135" si="52">LEFT(R127,1)</f>
-        <v/>
-      </c>
-      <c r="BJ127" t="str">
-        <f t="shared" ref="BJ127:BJ135" si="53">LEFT(S127,1)</f>
-        <v/>
-      </c>
-      <c r="BK127" t="str">
-        <f t="shared" ref="BK127:BK135" si="54">LEFT(T127,1)</f>
-        <v/>
-      </c>
-      <c r="BL127" t="str">
-        <f t="shared" ref="BL127:BL135" si="55">LEFT(U127,1)</f>
-        <v/>
-      </c>
-      <c r="BM127" t="str">
-        <f t="shared" ref="BM127:BM135" si="56">LEFT(V127,1)</f>
-        <v/>
-      </c>
-      <c r="BN127" t="str">
-        <f t="shared" ref="BN127:BN135" si="57">LEFT(W127,1)</f>
-        <v/>
-      </c>
-      <c r="BO127" t="str">
-        <f t="shared" ref="BO127:BO135" si="58">LEFT(X127,1)</f>
-        <v/>
-      </c>
-      <c r="BP127" t="str">
-        <f t="shared" ref="BP127:BP135" si="59">LEFT(Y127,1)</f>
-        <v/>
-      </c>
-      <c r="BQ127" t="str">
-        <f t="shared" ref="BQ127:BQ135" si="60">LEFT(Z127,1)</f>
-        <v/>
-      </c>
-      <c r="BR127" t="str">
-        <f t="shared" ref="BR127:BR135" si="61">LEFT(AA127,1)</f>
-        <v/>
-      </c>
-      <c r="BS127" t="str">
-        <f t="shared" ref="BS127:BS135" si="62">LEFT(AB127,1)</f>
-        <v/>
-      </c>
-      <c r="BT127" t="str">
-        <f t="shared" ref="BT127:BT135" si="63">LEFT(AC127,1)</f>
-        <v/>
-      </c>
-      <c r="BU127" t="str">
-        <f t="shared" ref="BU127:BU135" si="64">LEFT(AD127,1)</f>
-        <v/>
-      </c>
-      <c r="BV127" t="str">
-        <f t="shared" ref="BV127:BV135" si="65">LEFT(AE127,1)</f>
-        <v/>
-      </c>
-      <c r="BW127" t="str">
-        <f t="shared" ref="BW127:BW135" si="66">LEFT(AF127,1)</f>
-        <v/>
-      </c>
-      <c r="BX127" t="str">
-        <f t="shared" ref="BX127:BX135" si="67">LEFT(AG127,1)</f>
-        <v/>
-      </c>
-      <c r="BY127" t="str">
-        <f t="shared" ref="BY127:BY135" si="68">LEFT(AH127,1)</f>
-        <v/>
-      </c>
-      <c r="BZ127" t="str">
-        <f t="shared" ref="BZ127:BZ135" si="69">LEFT(AI127,1)</f>
-        <v/>
-      </c>
-      <c r="CA127" t="str">
-        <f t="shared" ref="CA127:CA135" si="70">LEFT(AJ127,1)</f>
-        <v/>
-      </c>
-      <c r="CB127" t="str">
-        <f t="shared" ref="CB127:CB135" si="71">LEFT(AK127,1)</f>
-        <v/>
-      </c>
-      <c r="CC127" t="str">
-        <f t="shared" ref="CC127:CC135" si="72">LEFT(AL127,1)</f>
-        <v/>
-      </c>
-      <c r="CD127" t="str">
-        <f t="shared" ref="CD127:CD135" si="73">LEFT(AM127,1)</f>
-        <v/>
-      </c>
-      <c r="CE127" t="str">
-        <f t="shared" ref="CE127:CE135" si="74">LEFT(AN127,1)</f>
-        <v/>
-      </c>
-      <c r="CF127" t="str">
-        <f t="shared" ref="CF127:CF135" si="75">LEFT(AO127,1)</f>
+    <row r="128" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT128" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="AU128" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="AV128" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
+      <c r="AW128" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="AX128" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="AY128" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="AZ128" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="BA128" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="BB128" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="BC128" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="BD128" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="BE128" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="BF128" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="BG128" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="BH128" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="BI128" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="BJ128" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="BK128" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="BL128" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="BM128" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="BN128" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="BO128" t="str">
+        <f t="shared" si="59"/>
+        <v/>
+      </c>
+      <c r="BP128" t="str">
+        <f t="shared" si="60"/>
+        <v/>
+      </c>
+      <c r="BQ128" t="str">
+        <f t="shared" si="61"/>
+        <v/>
+      </c>
+      <c r="BR128" t="str">
+        <f t="shared" si="62"/>
+        <v/>
+      </c>
+      <c r="BS128" t="str">
+        <f t="shared" si="63"/>
+        <v/>
+      </c>
+      <c r="BT128" t="str">
+        <f t="shared" si="64"/>
+        <v/>
+      </c>
+      <c r="BU128" t="str">
+        <f t="shared" si="65"/>
+        <v/>
+      </c>
+      <c r="BV128" t="str">
+        <f t="shared" si="66"/>
+        <v/>
+      </c>
+      <c r="BW128" t="str">
+        <f t="shared" si="67"/>
+        <v/>
+      </c>
+      <c r="BX128" t="str">
+        <f t="shared" si="68"/>
+        <v/>
+      </c>
+      <c r="BY128" t="str">
+        <f t="shared" si="69"/>
+        <v/>
+      </c>
+      <c r="BZ128" t="str">
+        <f t="shared" si="70"/>
+        <v/>
+      </c>
+      <c r="CA128" t="str">
+        <f t="shared" si="71"/>
+        <v/>
+      </c>
+      <c r="CB128" t="str">
+        <f t="shared" si="72"/>
+        <v/>
+      </c>
+      <c r="CC128" t="str">
+        <f t="shared" si="73"/>
+        <v/>
+      </c>
+      <c r="CD128" t="str">
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
+      <c r="CE128" t="str">
+        <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU128" t="str">
+    <row r="129" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT129" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AV128" t="str">
+      <c r="AU129" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AW128" t="str">
+      <c r="AV129" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AX128" t="str">
+      <c r="AW129" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AY128" t="str">
+      <c r="AX129" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AZ128" t="str">
+      <c r="AY129" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="BA128" t="str">
+      <c r="AZ129" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BB128" t="str">
+      <c r="BA129" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BC128" t="str">
+      <c r="BB129" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="BD128" t="str">
+      <c r="BC129" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="BE128" t="str">
+      <c r="BD129" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="BF128" t="str">
+      <c r="BE129" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BG128" t="str">
+      <c r="BF129" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BH128" t="str">
+      <c r="BG129" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BI128" t="str">
+      <c r="BH129" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BJ128" t="str">
+      <c r="BI129" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BK128" t="str">
+      <c r="BJ129" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BL128" t="str">
+      <c r="BK129" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BM128" t="str">
+      <c r="BL129" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BN128" t="str">
+      <c r="BM129" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BO128" t="str">
+      <c r="BN129" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="BP128" t="str">
+      <c r="BO129" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="BQ128" t="str">
+      <c r="BP129" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BR128" t="str">
+      <c r="BQ129" t="str">
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="BS128" t="str">
+      <c r="BR129" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="BT128" t="str">
+      <c r="BS129" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="BU128" t="str">
+      <c r="BT129" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="BV128" t="str">
+      <c r="BU129" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="BW128" t="str">
+      <c r="BV129" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="BX128" t="str">
+      <c r="BW129" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="BY128" t="str">
+      <c r="BX129" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="BZ128" t="str">
+      <c r="BY129" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="CA128" t="str">
+      <c r="BZ129" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="CB128" t="str">
+      <c r="CA129" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="CC128" t="str">
+      <c r="CB129" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="CD128" t="str">
+      <c r="CC129" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="CE128" t="str">
+      <c r="CD129" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="CF128" t="str">
+      <c r="CE129" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU129" t="str">
+    <row r="130" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT130" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AV129" t="str">
+      <c r="AU130" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AW129" t="str">
+      <c r="AV130" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AX129" t="str">
+      <c r="AW130" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AY129" t="str">
+      <c r="AX130" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AZ129" t="str">
+      <c r="AY130" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="BA129" t="str">
+      <c r="AZ130" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BB129" t="str">
+      <c r="BA130" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BC129" t="str">
+      <c r="BB130" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="BD129" t="str">
+      <c r="BC130" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="BE129" t="str">
+      <c r="BD130" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="BF129" t="str">
+      <c r="BE130" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BG129" t="str">
+      <c r="BF130" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BH129" t="str">
+      <c r="BG130" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BI129" t="str">
+      <c r="BH130" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BJ129" t="str">
+      <c r="BI130" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BK129" t="str">
+      <c r="BJ130" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BL129" t="str">
+      <c r="BK130" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BM129" t="str">
+      <c r="BL130" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BN129" t="str">
+      <c r="BM130" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BO129" t="str">
+      <c r="BN130" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="BP129" t="str">
+      <c r="BO130" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="BQ129" t="str">
+      <c r="BP130" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BR129" t="str">
+      <c r="BQ130" t="str">
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="BS129" t="str">
+      <c r="BR130" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="BT129" t="str">
+      <c r="BS130" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="BU129" t="str">
+      <c r="BT130" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="BV129" t="str">
+      <c r="BU130" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="BW129" t="str">
+      <c r="BV130" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="BX129" t="str">
+      <c r="BW130" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="BY129" t="str">
+      <c r="BX130" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="BZ129" t="str">
+      <c r="BY130" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="CA129" t="str">
+      <c r="BZ130" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="CB129" t="str">
+      <c r="CA130" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="CC129" t="str">
+      <c r="CB130" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="CD129" t="str">
+      <c r="CC130" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="CE129" t="str">
+      <c r="CD130" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="CF129" t="str">
+      <c r="CE130" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU130" t="str">
+    <row r="131" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT131" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AV130" t="str">
+      <c r="AU131" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AW130" t="str">
+      <c r="AV131" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AX130" t="str">
+      <c r="AW131" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AY130" t="str">
+      <c r="AX131" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AZ130" t="str">
+      <c r="AY131" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="BA130" t="str">
+      <c r="AZ131" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BB130" t="str">
+      <c r="BA131" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BC130" t="str">
+      <c r="BB131" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="BD130" t="str">
+      <c r="BC131" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="BE130" t="str">
+      <c r="BD131" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="BF130" t="str">
+      <c r="BE131" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BG130" t="str">
+      <c r="BF131" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BH130" t="str">
+      <c r="BG131" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BI130" t="str">
+      <c r="BH131" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BJ130" t="str">
+      <c r="BI131" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BK130" t="str">
+      <c r="BJ131" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BL130" t="str">
+      <c r="BK131" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BM130" t="str">
+      <c r="BL131" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BN130" t="str">
+      <c r="BM131" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BO130" t="str">
+      <c r="BN131" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="BP130" t="str">
+      <c r="BO131" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="BQ130" t="str">
+      <c r="BP131" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BR130" t="str">
+      <c r="BQ131" t="str">
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="BS130" t="str">
+      <c r="BR131" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="BT130" t="str">
+      <c r="BS131" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="BU130" t="str">
+      <c r="BT131" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="BV130" t="str">
+      <c r="BU131" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="BW130" t="str">
+      <c r="BV131" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="BX130" t="str">
+      <c r="BW131" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="BY130" t="str">
+      <c r="BX131" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="BZ130" t="str">
+      <c r="BY131" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="CA130" t="str">
+      <c r="BZ131" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="CB130" t="str">
+      <c r="CA131" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="CC130" t="str">
+      <c r="CB131" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="CD130" t="str">
+      <c r="CC131" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="CE130" t="str">
+      <c r="CD131" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="CF130" t="str">
+      <c r="CE131" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU131" t="str">
+    <row r="132" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT132" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AV131" t="str">
+      <c r="AU132" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AW131" t="str">
+      <c r="AV132" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AX131" t="str">
+      <c r="AW132" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AY131" t="str">
+      <c r="AX132" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AZ131" t="str">
+      <c r="AY132" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="BA131" t="str">
+      <c r="AZ132" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BB131" t="str">
+      <c r="BA132" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BC131" t="str">
+      <c r="BB132" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="BD131" t="str">
+      <c r="BC132" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="BE131" t="str">
+      <c r="BD132" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="BF131" t="str">
+      <c r="BE132" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BG131" t="str">
+      <c r="BF132" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BH131" t="str">
+      <c r="BG132" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BI131" t="str">
+      <c r="BH132" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BJ131" t="str">
+      <c r="BI132" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BK131" t="str">
+      <c r="BJ132" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BL131" t="str">
+      <c r="BK132" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BM131" t="str">
+      <c r="BL132" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BN131" t="str">
+      <c r="BM132" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BO131" t="str">
+      <c r="BN132" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="BP131" t="str">
+      <c r="BO132" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="BQ131" t="str">
+      <c r="BP132" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BR131" t="str">
+      <c r="BQ132" t="str">
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="BS131" t="str">
+      <c r="BR132" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="BT131" t="str">
+      <c r="BS132" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="BU131" t="str">
+      <c r="BT132" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="BV131" t="str">
+      <c r="BU132" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="BW131" t="str">
+      <c r="BV132" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="BX131" t="str">
+      <c r="BW132" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="BY131" t="str">
+      <c r="BX132" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="BZ131" t="str">
+      <c r="BY132" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="CA131" t="str">
+      <c r="BZ132" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="CB131" t="str">
+      <c r="CA132" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="CC131" t="str">
+      <c r="CB132" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="CD131" t="str">
+      <c r="CC132" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="CE131" t="str">
+      <c r="CD132" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="CF131" t="str">
+      <c r="CE132" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU132" t="str">
+    <row r="133" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT133" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AV132" t="str">
+      <c r="AU133" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AW132" t="str">
+      <c r="AV133" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AX132" t="str">
+      <c r="AW133" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AY132" t="str">
+      <c r="AX133" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AZ132" t="str">
+      <c r="AY133" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="BA132" t="str">
+      <c r="AZ133" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BB132" t="str">
+      <c r="BA133" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BC132" t="str">
+      <c r="BB133" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="BD132" t="str">
+      <c r="BC133" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="BE132" t="str">
+      <c r="BD133" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="BF132" t="str">
+      <c r="BE133" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BG132" t="str">
+      <c r="BF133" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BH132" t="str">
+      <c r="BG133" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BI132" t="str">
+      <c r="BH133" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BJ132" t="str">
+      <c r="BI133" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BK132" t="str">
+      <c r="BJ133" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BL132" t="str">
+      <c r="BK133" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BM132" t="str">
+      <c r="BL133" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BN132" t="str">
+      <c r="BM133" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BO132" t="str">
+      <c r="BN133" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="BP132" t="str">
+      <c r="BO133" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="BQ132" t="str">
+      <c r="BP133" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BR132" t="str">
+      <c r="BQ133" t="str">
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="BS132" t="str">
+      <c r="BR133" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="BT132" t="str">
+      <c r="BS133" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="BU132" t="str">
+      <c r="BT133" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="BV132" t="str">
+      <c r="BU133" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="BW132" t="str">
+      <c r="BV133" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="BX132" t="str">
+      <c r="BW133" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="BY132" t="str">
+      <c r="BX133" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="BZ132" t="str">
+      <c r="BY133" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="CA132" t="str">
+      <c r="BZ133" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="CB132" t="str">
+      <c r="CA133" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="CC132" t="str">
+      <c r="CB133" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="CD132" t="str">
+      <c r="CC133" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="CE132" t="str">
+      <c r="CD133" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="CF132" t="str">
+      <c r="CE133" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU133" t="str">
+    <row r="134" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT134" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AV133" t="str">
+      <c r="AU134" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AW133" t="str">
+      <c r="AV134" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AX133" t="str">
+      <c r="AW134" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AY133" t="str">
+      <c r="AX134" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AZ133" t="str">
+      <c r="AY134" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="BA133" t="str">
+      <c r="AZ134" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BB133" t="str">
+      <c r="BA134" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BC133" t="str">
+      <c r="BB134" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="BD133" t="str">
+      <c r="BC134" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="BE133" t="str">
+      <c r="BD134" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="BF133" t="str">
+      <c r="BE134" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BG133" t="str">
+      <c r="BF134" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BH133" t="str">
+      <c r="BG134" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BI133" t="str">
+      <c r="BH134" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BJ133" t="str">
+      <c r="BI134" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BK133" t="str">
+      <c r="BJ134" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BL133" t="str">
+      <c r="BK134" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BM133" t="str">
+      <c r="BL134" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BN133" t="str">
+      <c r="BM134" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BO133" t="str">
+      <c r="BN134" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="BP133" t="str">
+      <c r="BO134" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="BQ133" t="str">
+      <c r="BP134" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BR133" t="str">
+      <c r="BQ134" t="str">
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="BS133" t="str">
+      <c r="BR134" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="BT133" t="str">
+      <c r="BS134" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="BU133" t="str">
+      <c r="BT134" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="BV133" t="str">
+      <c r="BU134" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="BW133" t="str">
+      <c r="BV134" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="BX133" t="str">
+      <c r="BW134" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="BY133" t="str">
+      <c r="BX134" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="BZ133" t="str">
+      <c r="BY134" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="CA133" t="str">
+      <c r="BZ134" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="CB133" t="str">
+      <c r="CA134" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="CC133" t="str">
+      <c r="CB134" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="CD133" t="str">
+      <c r="CC134" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="CE133" t="str">
+      <c r="CD134" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="CF133" t="str">
+      <c r="CE134" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU134" t="str">
+    <row r="135" spans="46:83" x14ac:dyDescent="0.25">
+      <c r="AT135" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="AV134" t="str">
+      <c r="AU135" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="AW134" t="str">
+      <c r="AV135" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="AX134" t="str">
+      <c r="AW135" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="AY134" t="str">
+      <c r="AX135" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="AZ134" t="str">
+      <c r="AY135" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="BA134" t="str">
+      <c r="AZ135" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="BB134" t="str">
+      <c r="BA135" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="BC134" t="str">
+      <c r="BB135" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="BD134" t="str">
+      <c r="BC135" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="BE134" t="str">
+      <c r="BD135" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="BF134" t="str">
+      <c r="BE135" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="BG134" t="str">
+      <c r="BF135" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="BH134" t="str">
+      <c r="BG135" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="BI134" t="str">
+      <c r="BH135" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="BJ134" t="str">
+      <c r="BI135" t="str">
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="BK134" t="str">
+      <c r="BJ135" t="str">
         <f t="shared" si="54"/>
         <v/>
       </c>
-      <c r="BL134" t="str">
+      <c r="BK135" t="str">
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="BM134" t="str">
+      <c r="BL135" t="str">
         <f t="shared" si="56"/>
         <v/>
       </c>
-      <c r="BN134" t="str">
+      <c r="BM135" t="str">
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="BO134" t="str">
+      <c r="BN135" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
-      <c r="BP134" t="str">
+      <c r="BO135" t="str">
         <f t="shared" si="59"/>
         <v/>
       </c>
-      <c r="BQ134" t="str">
+      <c r="BP135" t="str">
         <f t="shared" si="60"/>
         <v/>
       </c>
-      <c r="BR134" t="str">
+      <c r="BQ135" t="str">
         <f t="shared" si="61"/>
         <v/>
       </c>
-      <c r="BS134" t="str">
+      <c r="BR135" t="str">
         <f t="shared" si="62"/>
         <v/>
       </c>
-      <c r="BT134" t="str">
+      <c r="BS135" t="str">
         <f t="shared" si="63"/>
         <v/>
       </c>
-      <c r="BU134" t="str">
+      <c r="BT135" t="str">
         <f t="shared" si="64"/>
         <v/>
       </c>
-      <c r="BV134" t="str">
+      <c r="BU135" t="str">
         <f t="shared" si="65"/>
         <v/>
       </c>
-      <c r="BW134" t="str">
+      <c r="BV135" t="str">
         <f t="shared" si="66"/>
         <v/>
       </c>
-      <c r="BX134" t="str">
+      <c r="BW135" t="str">
         <f t="shared" si="67"/>
         <v/>
       </c>
-      <c r="BY134" t="str">
+      <c r="BX135" t="str">
         <f t="shared" si="68"/>
         <v/>
       </c>
-      <c r="BZ134" t="str">
+      <c r="BY135" t="str">
         <f t="shared" si="69"/>
         <v/>
       </c>
-      <c r="CA134" t="str">
+      <c r="BZ135" t="str">
         <f t="shared" si="70"/>
         <v/>
       </c>
-      <c r="CB134" t="str">
+      <c r="CA135" t="str">
         <f t="shared" si="71"/>
         <v/>
       </c>
-      <c r="CC134" t="str">
+      <c r="CB135" t="str">
         <f t="shared" si="72"/>
         <v/>
       </c>
-      <c r="CD134" t="str">
+      <c r="CC135" t="str">
         <f t="shared" si="73"/>
         <v/>
       </c>
-      <c r="CE134" t="str">
+      <c r="CD135" t="str">
         <f t="shared" si="74"/>
         <v/>
       </c>
-      <c r="CF134" t="str">
-        <f t="shared" si="75"/>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="47:84" x14ac:dyDescent="0.25">
-      <c r="AU135" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="AV135" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="AW135" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="AX135" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="AY135" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="AZ135" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="BA135" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="BB135" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="BC135" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="BD135" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="BE135" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="BF135" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="BG135" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="BH135" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="BI135" t="str">
-        <f t="shared" si="52"/>
-        <v/>
-      </c>
-      <c r="BJ135" t="str">
-        <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="BK135" t="str">
-        <f t="shared" si="54"/>
-        <v/>
-      </c>
-      <c r="BL135" t="str">
-        <f t="shared" si="55"/>
-        <v/>
-      </c>
-      <c r="BM135" t="str">
-        <f t="shared" si="56"/>
-        <v/>
-      </c>
-      <c r="BN135" t="str">
-        <f t="shared" si="57"/>
-        <v/>
-      </c>
-      <c r="BO135" t="str">
-        <f t="shared" si="58"/>
-        <v/>
-      </c>
-      <c r="BP135" t="str">
-        <f t="shared" si="59"/>
-        <v/>
-      </c>
-      <c r="BQ135" t="str">
-        <f t="shared" si="60"/>
-        <v/>
-      </c>
-      <c r="BR135" t="str">
-        <f t="shared" si="61"/>
-        <v/>
-      </c>
-      <c r="BS135" t="str">
-        <f t="shared" si="62"/>
-        <v/>
-      </c>
-      <c r="BT135" t="str">
-        <f t="shared" si="63"/>
-        <v/>
-      </c>
-      <c r="BU135" t="str">
-        <f t="shared" si="64"/>
-        <v/>
-      </c>
-      <c r="BV135" t="str">
-        <f t="shared" si="65"/>
-        <v/>
-      </c>
-      <c r="BW135" t="str">
-        <f t="shared" si="66"/>
-        <v/>
-      </c>
-      <c r="BX135" t="str">
-        <f t="shared" si="67"/>
-        <v/>
-      </c>
-      <c r="BY135" t="str">
-        <f t="shared" si="68"/>
-        <v/>
-      </c>
-      <c r="BZ135" t="str">
-        <f t="shared" si="69"/>
-        <v/>
-      </c>
-      <c r="CA135" t="str">
-        <f t="shared" si="70"/>
-        <v/>
-      </c>
-      <c r="CB135" t="str">
-        <f t="shared" si="71"/>
-        <v/>
-      </c>
-      <c r="CC135" t="str">
-        <f t="shared" si="72"/>
-        <v/>
-      </c>
-      <c r="CD135" t="str">
-        <f t="shared" si="73"/>
-        <v/>
-      </c>
       <c r="CE135" t="str">
-        <f t="shared" si="74"/>
-        <v/>
-      </c>
-      <c r="CF135" t="str">
         <f t="shared" si="75"/>
         <v/>
       </c>
@@ -20324,6 +20324,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FBAB5CCC7A94294FA92A219CB40CA5F3" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="01842a807f4e8eff055ae02b636ac752">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f09df0d-5dee-4acc-aa0a-8f807c98dfbe" xmlns:ns3="a390e89a-0ba1-438e-916e-aac2f253f5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b70a434aac71ca444f0392565718366" ns2:_="" ns3:_="">
     <xsd:import namespace="6f09df0d-5dee-4acc-aa0a-8f807c98dfbe"/>
@@ -20558,16 +20567,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40E62A9E-5CE2-4DBC-B835-6FC12E202D88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE1F0C44-ABA2-49A2-A232-32454C626741}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20584,12 +20592,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40E62A9E-5CE2-4DBC-B835-6FC12E202D88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/POST_COMPLETED_240711.xlsx
+++ b/POST_COMPLETED_240711.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joellai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FCB4AE-BEB1-4482-ABE8-A6350F57DBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17AB7B0-8492-41E2-82B3-8D88D8F090AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2198F4C1-B610-4748-A209-68D41EF30B2D}"/>
   </bookViews>
@@ -1218,18 +1218,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm:ss\ AM/PM"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1238,7 +1239,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="164" formatCode="d/m/yyyy\ h:mm:ss\ AM/PM"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1257,8 +1258,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A338227-7672-4135-9686-CA6F28DDFC8D}" name="Table1" displayName="Table1" ref="A1:AR110" totalsRowShown="0">
   <autoFilter ref="A1:AR110" xr:uid="{2A338227-7672-4135-9686-CA6F28DDFC8D}"/>
   <tableColumns count="44">
-    <tableColumn id="1" xr3:uid="{9DAB8F59-8C1A-4B26-967D-E576D3052E64}" name="Record ID" dataDxfId="3"/>
-    <tableColumn id="43" xr3:uid="{0D87E13A-F1E1-470A-A02D-6B35D30DE793}" name="Pre Record ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9DAB8F59-8C1A-4B26-967D-E576D3052E64}" name="Record ID" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{0D87E13A-F1E1-470A-A02D-6B35D30DE793}" name="Pre Record ID" dataDxfId="0"/>
     <tableColumn id="44" xr3:uid="{42C7E90D-23A5-4A4D-A39E-2EDFBC15B144}" name="Participation_Status" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</calculatedColumnFormula>
     </tableColumn>
@@ -1302,7 +1303,7 @@
     <tableColumn id="39" xr3:uid="{2E88A4B2-63AE-41A2-9B41-A3AFEB775193}" name="3.1 (Q6_A_7)"/>
     <tableColumn id="40" xr3:uid="{8277E30F-AA60-48EC-A82B-0D3DF514FC87}" name="3.2 (Q7)"/>
     <tableColumn id="41" xr3:uid="{37B3B34F-3847-4DB5-8993-F7C1C9138E19}" name="3.3 (Q8)"/>
-    <tableColumn id="42" xr3:uid="{7FDA39D5-A477-4A0B-924F-B00CCEBDE6F6}" name="COMPLETED" dataDxfId="0"/>
+    <tableColumn id="42" xr3:uid="{7FDA39D5-A477-4A0B-924F-B00CCEBDE6F6}" name="COMPLETED" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1627,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A339CFE-998F-42FB-8CA9-1437D425F838}">
   <dimension ref="A1:CE135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AW13" sqref="AW13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1782,7 @@
       <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C2" t="str">
@@ -1916,7 +1917,7 @@
       <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C3" t="str">
@@ -2051,7 +2052,7 @@
       <c r="A4" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C4" t="str">
@@ -2186,7 +2187,7 @@
       <c r="A5" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C5" t="str">
@@ -2321,7 +2322,7 @@
       <c r="A6" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C6" t="str">
@@ -2456,7 +2457,7 @@
       <c r="A7" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C7" t="str">
@@ -2591,7 +2592,7 @@
       <c r="A8" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C8" t="str">
@@ -2726,7 +2727,7 @@
       <c r="A9" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C9" t="str">
@@ -2861,7 +2862,7 @@
       <c r="A10" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C10" t="str">
@@ -2996,7 +2997,7 @@
       <c r="A11" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>169</v>
       </c>
       <c r="C11" t="str">
@@ -3131,7 +3132,7 @@
       <c r="A12" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C12" t="str">
@@ -3266,7 +3267,7 @@
       <c r="A13" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C13" t="str">
@@ -3401,7 +3402,7 @@
       <c r="A14" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>172</v>
       </c>
       <c r="C14" t="str">
@@ -3536,7 +3537,7 @@
       <c r="A15" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C15" t="str">
@@ -3671,7 +3672,7 @@
       <c r="A16" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>174</v>
       </c>
       <c r="C16" t="str">
@@ -3806,7 +3807,7 @@
       <c r="A17" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>175</v>
       </c>
       <c r="C17" t="str">
@@ -3941,7 +3942,7 @@
       <c r="A18" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>176</v>
       </c>
       <c r="C18" t="str">
@@ -4076,7 +4077,7 @@
       <c r="A19" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>177</v>
       </c>
       <c r="C19" t="str">
@@ -4211,7 +4212,7 @@
       <c r="A20" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C20" t="str">
@@ -4346,7 +4347,7 @@
       <c r="A21" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>179</v>
       </c>
       <c r="C21" t="str">
@@ -4481,7 +4482,7 @@
       <c r="A22" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C22" t="str">
@@ -4616,7 +4617,7 @@
       <c r="A23" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>181</v>
       </c>
       <c r="C23" t="str">
@@ -4751,7 +4752,7 @@
       <c r="A24" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C24" t="str">
@@ -4886,7 +4887,7 @@
       <c r="A25" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C25" t="str">
@@ -5021,7 +5022,7 @@
       <c r="A26" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C26" t="str">
@@ -5156,7 +5157,7 @@
       <c r="A27" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C27" t="str">
@@ -5291,7 +5292,7 @@
       <c r="A28" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C28" t="str">
@@ -5426,7 +5427,7 @@
       <c r="A29" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C29" t="str">
@@ -5561,7 +5562,7 @@
       <c r="A30" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C30" t="str">
@@ -5696,7 +5697,7 @@
       <c r="A31" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>189</v>
       </c>
       <c r="C31" t="str">
@@ -5831,7 +5832,7 @@
       <c r="A32" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>190</v>
       </c>
       <c r="C32" t="str">
@@ -5966,6 +5967,7 @@
       <c r="A33" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="B33" s="3"/>
       <c r="C33" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -6098,7 +6100,7 @@
       <c r="A34" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C34" t="str">
@@ -6233,7 +6235,7 @@
       <c r="A35" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>192</v>
       </c>
       <c r="C35" t="str">
@@ -6368,7 +6370,7 @@
       <c r="A36" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>193</v>
       </c>
       <c r="C36" t="str">
@@ -6503,7 +6505,7 @@
       <c r="A37" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C37" t="str">
@@ -6638,7 +6640,7 @@
       <c r="A38" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>195</v>
       </c>
       <c r="C38" t="str">
@@ -6773,7 +6775,7 @@
       <c r="A39" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C39" t="str">
@@ -6908,7 +6910,7 @@
       <c r="A40" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C40" t="str">
@@ -7043,7 +7045,7 @@
       <c r="A41" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>198</v>
       </c>
       <c r="C41" t="str">
@@ -7178,7 +7180,7 @@
       <c r="A42" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>199</v>
       </c>
       <c r="C42" t="str">
@@ -7313,7 +7315,7 @@
       <c r="A43" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>200</v>
       </c>
       <c r="C43" t="str">
@@ -7448,7 +7450,7 @@
       <c r="A44" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C44" t="str">
@@ -7583,7 +7585,7 @@
       <c r="A45" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C45" t="str">
@@ -7718,7 +7720,7 @@
       <c r="A46" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>203</v>
       </c>
       <c r="C46" t="str">
@@ -7853,7 +7855,7 @@
       <c r="A47" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C47" t="str">
@@ -7988,7 +7990,7 @@
       <c r="A48" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C48" t="str">
@@ -8123,7 +8125,7 @@
       <c r="A49" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C49" t="str">
@@ -8258,7 +8260,7 @@
       <c r="A50" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C50" t="str">
@@ -8393,7 +8395,7 @@
       <c r="A51" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>208</v>
       </c>
       <c r="C51" t="str">
@@ -8528,7 +8530,7 @@
       <c r="A52" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>209</v>
       </c>
       <c r="C52" t="str">
@@ -8663,6 +8665,7 @@
       <c r="A53" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="B53" s="3"/>
       <c r="C53" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -8795,7 +8798,7 @@
       <c r="A54" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>210</v>
       </c>
       <c r="C54" t="str">
@@ -8930,7 +8933,7 @@
       <c r="A55" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>211</v>
       </c>
       <c r="C55" t="str">
@@ -9065,7 +9068,7 @@
       <c r="A56" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C56" t="str">
@@ -9200,7 +9203,7 @@
       <c r="A57" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C57" t="str">
@@ -9335,7 +9338,7 @@
       <c r="A58" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C58" t="str">
@@ -9470,7 +9473,7 @@
       <c r="A59" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C59" t="str">
@@ -9605,7 +9608,7 @@
       <c r="A60" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C60" t="str">
@@ -9740,7 +9743,7 @@
       <c r="A61" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C61" t="str">
@@ -9875,7 +9878,7 @@
       <c r="A62" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C62" t="str">
@@ -10010,7 +10013,7 @@
       <c r="A63" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C63" t="str">
@@ -10145,7 +10148,7 @@
       <c r="A64" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C64" t="str">
@@ -10280,7 +10283,7 @@
       <c r="A65" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C65" t="str">
@@ -10415,7 +10418,7 @@
       <c r="A66" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C66" t="str">
@@ -10550,7 +10553,7 @@
       <c r="A67" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>223</v>
       </c>
       <c r="C67" t="str">
@@ -10685,7 +10688,7 @@
       <c r="A68" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>224</v>
       </c>
       <c r="C68" t="str">
@@ -10820,6 +10823,7 @@
       <c r="A69" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="B69" s="3"/>
       <c r="C69" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -10952,7 +10956,7 @@
       <c r="A70" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C70" t="str">
@@ -11087,7 +11091,7 @@
       <c r="A71" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>226</v>
       </c>
       <c r="C71" t="str">
@@ -11222,7 +11226,7 @@
       <c r="A72" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>227</v>
       </c>
       <c r="C72" t="str">
@@ -11357,7 +11361,7 @@
       <c r="A73" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>228</v>
       </c>
       <c r="C73" t="str">
@@ -11492,6 +11496,7 @@
       <c r="A74" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="B74" s="3"/>
       <c r="C74" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -11624,6 +11629,7 @@
       <c r="A75" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="B75" s="3"/>
       <c r="C75" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -11756,7 +11762,7 @@
       <c r="A76" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C76" t="str">
@@ -11891,7 +11897,7 @@
       <c r="A77" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C77" t="str">
@@ -12026,6 +12032,7 @@
       <c r="A78" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="B78" s="3"/>
       <c r="C78" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -12158,7 +12165,7 @@
       <c r="A79" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C79" t="str">
@@ -12293,7 +12300,7 @@
       <c r="A80" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>232</v>
       </c>
       <c r="C80" t="str">
@@ -12428,7 +12435,7 @@
       <c r="A81" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>233</v>
       </c>
       <c r="C81" t="str">
@@ -12563,6 +12570,7 @@
       <c r="A82" s="2" t="s">
         <v>340</v>
       </c>
+      <c r="B82" s="3"/>
       <c r="C82" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -12695,7 +12703,7 @@
       <c r="A83" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>234</v>
       </c>
       <c r="C83" t="str">
@@ -12830,7 +12838,7 @@
       <c r="A84" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>235</v>
       </c>
       <c r="C84" t="str">
@@ -12965,7 +12973,7 @@
       <c r="A85" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>236</v>
       </c>
       <c r="C85" t="str">
@@ -13100,7 +13108,7 @@
       <c r="A86" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C86" t="str">
@@ -13235,7 +13243,7 @@
       <c r="A87" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C87" t="str">
@@ -13370,7 +13378,7 @@
       <c r="A88" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C88" t="str">
@@ -13505,7 +13513,7 @@
       <c r="A89" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C89" t="str">
@@ -13640,7 +13648,7 @@
       <c r="A90" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C90" t="str">
@@ -13775,7 +13783,7 @@
       <c r="A91" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>242</v>
       </c>
       <c r="C91" t="str">
@@ -13910,7 +13918,7 @@
       <c r="A92" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>243</v>
       </c>
       <c r="C92" t="str">
@@ -14045,7 +14053,7 @@
       <c r="A93" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>244</v>
       </c>
       <c r="C93" t="str">
@@ -14180,7 +14188,7 @@
       <c r="A94" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>245</v>
       </c>
       <c r="C94" t="str">
@@ -14315,7 +14323,7 @@
       <c r="A95" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>246</v>
       </c>
       <c r="C95" t="str">
@@ -14450,6 +14458,7 @@
       <c r="A96" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="B96" s="3"/>
       <c r="C96" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -14582,7 +14591,7 @@
       <c r="A97" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>247</v>
       </c>
       <c r="C97" t="str">
@@ -14717,7 +14726,7 @@
       <c r="A98" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>248</v>
       </c>
       <c r="C98" t="str">
@@ -14852,7 +14861,7 @@
       <c r="A99" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>249</v>
       </c>
       <c r="C99" t="str">
@@ -14987,7 +14996,7 @@
       <c r="A100" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>250</v>
       </c>
       <c r="C100" t="str">
@@ -15122,7 +15131,7 @@
       <c r="A101" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>251</v>
       </c>
       <c r="C101" t="str">
@@ -15257,7 +15266,7 @@
       <c r="A102" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>252</v>
       </c>
       <c r="C102" t="str">
@@ -15392,7 +15401,7 @@
       <c r="A103" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C103" t="str">
@@ -15527,7 +15536,7 @@
       <c r="A104" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C104" t="str">
@@ -15662,7 +15671,7 @@
       <c r="A105" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C105" t="str">
@@ -15797,7 +15806,7 @@
       <c r="A106" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C106" t="str">
@@ -15932,7 +15941,7 @@
       <c r="A107" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C107" t="str">
@@ -16067,7 +16076,7 @@
       <c r="A108" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C108" t="str">
@@ -16202,6 +16211,7 @@
       <c r="A109" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="B109" s="3"/>
       <c r="C109" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[Pre Record ID]]),"No","Yes")</f>
         <v>No</v>
@@ -16331,10 +16341,10 @@
       </c>
     </row>
     <row r="110" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C110" t="str">
@@ -20317,6 +20327,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:B110" numberStoredAsText="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -20324,15 +20337,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FBAB5CCC7A94294FA92A219CB40CA5F3" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="01842a807f4e8eff055ae02b636ac752">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f09df0d-5dee-4acc-aa0a-8f807c98dfbe" xmlns:ns3="a390e89a-0ba1-438e-916e-aac2f253f5fa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b70a434aac71ca444f0392565718366" ns2:_="" ns3:_="">
     <xsd:import namespace="6f09df0d-5dee-4acc-aa0a-8f807c98dfbe"/>
@@ -20567,15 +20571,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40E62A9E-5CE2-4DBC-B835-6FC12E202D88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE1F0C44-ABA2-49A2-A232-32454C626741}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20592,4 +20597,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40E62A9E-5CE2-4DBC-B835-6FC12E202D88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>